--- a/サンプルアプリケーション/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(画面)_WA10102_ログアウト.xlsx
+++ b/サンプルアプリケーション/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(画面)_WA10102_ログアウト.xlsx
@@ -34,6 +34,36 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作成者</author>
+  </authors>
+  <commentList>
+    <comment ref="B10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>この章以降は画面単位の仕様を記述する。
+1.画面概要
+2.画面レイアウト
+3.項目定義
+4.画面イベント一覧
+5.画面イベント詳細
+6.画面イベント補足　※この節については内部設計工程で記述する。</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作成者</author>
@@ -168,7 +198,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>PJ名</t>
   </si>
@@ -659,21 +689,10 @@
     <phoneticPr fontId="14"/>
   </si>
   <si>
-    <t>2. WA10101(ログイン画面)</t>
-    <rPh sb="15" eb="17">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>全ユーザ</t>
     <rPh sb="0" eb="1">
       <t>ゼン</t>
     </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>2. WA10101(ログイン画面)</t>
     <phoneticPr fontId="11"/>
   </si>
   <si>
@@ -705,22 +724,6 @@
     <t>なし</t>
   </si>
   <si>
-    <t>セッション無効処理、ログイン画面へ遷移する。</t>
-    <rPh sb="5" eb="7">
-      <t>ムコウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>画面なし。</t>
     <rPh sb="0" eb="2">
       <t>ガメン</t>
@@ -757,6 +760,25 @@
   </si>
   <si>
     <t>WA10102</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>2. WA10102(ログアウト画面)</t>
+  </si>
+  <si>
+    <t>セッションを無効化し、ログイン画面へ遷移する。</t>
+    <rPh sb="6" eb="8">
+      <t>ムコウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>センイ</t>
+    </rPh>
     <phoneticPr fontId="11"/>
   </si>
 </sst>
@@ -768,7 +790,7 @@
     <numFmt numFmtId="176" formatCode="&quot;第&quot;0.00&quot;版&quot;"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <name val="ＭＳ 明朝"/>
@@ -1638,9 +1660,117 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="31" fontId="8" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1677,24 +1807,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1704,24 +1816,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1758,74 +1852,35 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -1836,36 +1891,6 @@
     <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1917,12 +1942,63 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1940,60 +2016,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -2757,42 +2779,42 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.5" customHeight="1">
+    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3" ht="19.5" customHeight="1">
+    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
     </row>
-    <row r="3" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="4" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="5" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="6" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="7" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="8" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="9" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="10" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="11" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="12" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="13" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="14" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="15" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="16" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="17" spans="6:12" ht="13.5" customHeight="1"/>
-    <row r="18" spans="6:12" ht="13.5" customHeight="1"/>
-    <row r="19" spans="6:12" ht="13.5" customHeight="1"/>
-    <row r="20" spans="6:12" ht="13.5" customHeight="1"/>
-    <row r="21" spans="6:12" ht="13.5" customHeight="1"/>
-    <row r="22" spans="6:12" ht="13.5" customHeight="1">
+    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F22" s="5"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="6:12" ht="17.25" customHeight="1">
+    <row r="23" spans="6:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
@@ -2803,7 +2825,7 @@
       <c r="K23" s="19"/>
       <c r="L23" s="19"/>
     </row>
-    <row r="24" spans="6:12" ht="13.5" customHeight="1">
+    <row r="24" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
@@ -2812,19 +2834,19 @@
       <c r="K24" s="19"/>
       <c r="L24" s="19"/>
     </row>
-    <row r="25" spans="6:12" ht="18" customHeight="1">
+    <row r="25" spans="6:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="133">
+      <c r="I25" s="134">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
         <v>43697</v>
       </c>
-      <c r="J25" s="133"/>
-      <c r="K25" s="133"/>
+      <c r="J25" s="134"/>
+      <c r="K25" s="134"/>
       <c r="L25" s="19"/>
     </row>
-    <row r="26" spans="6:12" ht="13.5" customHeight="1">
+    <row r="26" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
@@ -2833,7 +2855,7 @@
       <c r="K26" s="19"/>
       <c r="L26" s="19"/>
     </row>
-    <row r="27" spans="6:12" ht="13.5" customHeight="1">
+    <row r="27" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
@@ -2842,7 +2864,7 @@
       <c r="K27" s="19"/>
       <c r="L27" s="19"/>
     </row>
-    <row r="28" spans="6:12" ht="13.5" customHeight="1">
+    <row r="28" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F28" s="6"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
@@ -2851,7 +2873,7 @@
       <c r="K28" s="19"/>
       <c r="L28" s="19"/>
     </row>
-    <row r="29" spans="6:12" ht="15" customHeight="1">
+    <row r="29" spans="6:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="19"/>
@@ -2859,7 +2881,7 @@
       <c r="K29" s="19"/>
       <c r="L29" s="19"/>
     </row>
-    <row r="30" spans="6:12" ht="13.5" customHeight="1">
+    <row r="30" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F30" s="5"/>
       <c r="G30" s="12"/>
       <c r="H30" s="5"/>
@@ -2868,7 +2890,7 @@
       <c r="K30" s="19"/>
       <c r="L30" s="19"/>
     </row>
-    <row r="31" spans="6:12" ht="18.75" customHeight="1">
+    <row r="31" spans="6:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F31" s="5"/>
       <c r="G31" s="12"/>
       <c r="H31" s="5"/>
@@ -2877,7 +2899,7 @@
       <c r="K31" s="19"/>
       <c r="L31" s="19"/>
     </row>
-    <row r="32" spans="6:12" ht="18.75">
+    <row r="32" spans="6:12" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F32" s="5"/>
       <c r="G32" s="12"/>
       <c r="H32" s="5"/>
@@ -2886,7 +2908,7 @@
       <c r="K32" s="19"/>
       <c r="L32" s="19"/>
     </row>
-    <row r="33" spans="6:19" ht="18.75">
+    <row r="33" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="19"/>
@@ -2898,7 +2920,7 @@
       <c r="O33" s="7"/>
       <c r="P33" s="7"/>
     </row>
-    <row r="34" spans="6:19" ht="18.75">
+    <row r="34" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F34" s="5"/>
       <c r="H34" s="5"/>
       <c r="I34" s="19"/>
@@ -2913,515 +2935,515 @@
       <c r="R34" s="86"/>
       <c r="S34" s="86"/>
     </row>
-    <row r="35" spans="6:19" ht="13.5" customHeight="1">
+    <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O35" s="7"/>
       <c r="P35" s="7"/>
       <c r="Q35" s="86"/>
       <c r="R35" s="86"/>
       <c r="S35" s="86"/>
     </row>
-    <row r="36" spans="6:19" ht="13.5" customHeight="1">
+    <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O36" s="87"/>
       <c r="P36" s="86"/>
       <c r="Q36" s="87"/>
       <c r="R36" s="86"/>
       <c r="S36" s="84"/>
     </row>
-    <row r="37" spans="6:19" ht="13.5" customHeight="1">
+    <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O37" s="88"/>
       <c r="P37" s="89"/>
       <c r="Q37" s="88"/>
       <c r="R37" s="89"/>
       <c r="S37" s="88"/>
     </row>
-    <row r="38" spans="6:19" ht="13.5" customHeight="1">
+    <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O38" s="89"/>
       <c r="P38" s="89"/>
       <c r="Q38" s="89"/>
       <c r="R38" s="89"/>
       <c r="S38" s="89"/>
     </row>
-    <row r="39" spans="6:19" ht="13.5" customHeight="1">
+    <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O39" s="89"/>
       <c r="P39" s="89"/>
       <c r="Q39" s="89"/>
       <c r="R39" s="89"/>
       <c r="S39" s="89"/>
     </row>
-    <row r="40" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="41" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="42" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="43" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="44" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="45" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="46" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="47" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="48" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="49" ht="13.5" customHeight="1"/>
-    <row r="50" ht="13.5" customHeight="1"/>
-    <row r="51" ht="13.5" customHeight="1"/>
-    <row r="52" ht="13.5" customHeight="1"/>
-    <row r="53" ht="13.5" customHeight="1"/>
-    <row r="54" ht="13.5" customHeight="1"/>
-    <row r="55" ht="13.5" customHeight="1"/>
-    <row r="56" ht="13.5" customHeight="1"/>
-    <row r="57" ht="13.5" customHeight="1"/>
-    <row r="58" ht="13.5" customHeight="1"/>
-    <row r="59" ht="13.5" customHeight="1"/>
-    <row r="60" ht="13.5" customHeight="1"/>
-    <row r="61" ht="13.5" customHeight="1"/>
-    <row r="62" ht="13.5" customHeight="1"/>
-    <row r="63" ht="13.5" customHeight="1"/>
-    <row r="64" ht="13.5" customHeight="1"/>
-    <row r="65" ht="13.5" customHeight="1"/>
-    <row r="66" ht="13.5" customHeight="1"/>
-    <row r="67" ht="13.5" customHeight="1"/>
-    <row r="68" ht="13.5" customHeight="1"/>
-    <row r="69" ht="13.5" customHeight="1"/>
-    <row r="70" ht="13.5" customHeight="1"/>
-    <row r="71" ht="13.5" customHeight="1"/>
-    <row r="72" ht="13.5" customHeight="1"/>
-    <row r="73" ht="13.5" customHeight="1"/>
-    <row r="74" ht="13.5" customHeight="1"/>
-    <row r="75" ht="13.5" customHeight="1"/>
-    <row r="76" ht="13.5" customHeight="1"/>
-    <row r="77" ht="13.5" customHeight="1"/>
-    <row r="78" ht="13.5" customHeight="1"/>
-    <row r="79" ht="13.5" customHeight="1"/>
-    <row r="80" ht="13.5" customHeight="1"/>
-    <row r="81" ht="13.5" customHeight="1"/>
-    <row r="82" ht="13.5" customHeight="1"/>
-    <row r="83" ht="13.5" customHeight="1"/>
-    <row r="84" ht="13.5" customHeight="1"/>
-    <row r="85" ht="13.5" customHeight="1"/>
-    <row r="86" ht="13.5" customHeight="1"/>
-    <row r="87" ht="13.5" customHeight="1"/>
-    <row r="88" ht="13.5" customHeight="1"/>
-    <row r="89" ht="13.5" customHeight="1"/>
-    <row r="90" ht="13.5" customHeight="1"/>
-    <row r="91" ht="13.5" customHeight="1"/>
-    <row r="92" ht="13.5" customHeight="1"/>
-    <row r="93" ht="13.5" customHeight="1"/>
-    <row r="94" ht="13.5" customHeight="1"/>
-    <row r="95" ht="13.5" customHeight="1"/>
-    <row r="96" ht="13.5" customHeight="1"/>
-    <row r="97" ht="13.5" customHeight="1"/>
-    <row r="98" ht="13.5" customHeight="1"/>
-    <row r="99" ht="13.5" customHeight="1"/>
-    <row r="100" ht="13.5" customHeight="1"/>
-    <row r="101" ht="13.5" customHeight="1"/>
-    <row r="102" ht="13.5" customHeight="1"/>
-    <row r="103" ht="13.5" customHeight="1"/>
-    <row r="104" ht="13.5" customHeight="1"/>
-    <row r="105" ht="13.5" customHeight="1"/>
-    <row r="106" ht="13.5" customHeight="1"/>
-    <row r="107" ht="13.5" customHeight="1"/>
-    <row r="108" ht="13.5" customHeight="1"/>
-    <row r="109" ht="13.5" customHeight="1"/>
-    <row r="110" ht="13.5" customHeight="1"/>
-    <row r="111" ht="13.5" customHeight="1"/>
-    <row r="112" ht="13.5" customHeight="1"/>
-    <row r="113" ht="13.5" customHeight="1"/>
-    <row r="114" ht="13.5" customHeight="1"/>
-    <row r="115" ht="13.5" customHeight="1"/>
-    <row r="116" ht="13.5" customHeight="1"/>
-    <row r="117" ht="13.5" customHeight="1"/>
-    <row r="118" ht="13.5" customHeight="1"/>
-    <row r="119" ht="13.5" customHeight="1"/>
-    <row r="120" ht="13.5" customHeight="1"/>
-    <row r="121" ht="13.5" customHeight="1"/>
-    <row r="122" ht="13.5" customHeight="1"/>
-    <row r="123" ht="13.5" customHeight="1"/>
-    <row r="124" ht="13.5" customHeight="1"/>
-    <row r="125" ht="13.5" customHeight="1"/>
-    <row r="126" ht="13.5" customHeight="1"/>
-    <row r="127" ht="13.5" customHeight="1"/>
-    <row r="128" ht="13.5" customHeight="1"/>
-    <row r="129" ht="13.5" customHeight="1"/>
-    <row r="130" ht="13.5" customHeight="1"/>
-    <row r="131" ht="13.5" customHeight="1"/>
-    <row r="132" ht="13.5" customHeight="1"/>
-    <row r="133" ht="13.5" customHeight="1"/>
-    <row r="134" ht="13.5" customHeight="1"/>
-    <row r="135" ht="13.5" customHeight="1"/>
-    <row r="136" ht="13.5" customHeight="1"/>
-    <row r="137" ht="13.5" customHeight="1"/>
-    <row r="138" ht="13.5" customHeight="1"/>
-    <row r="139" ht="13.5" customHeight="1"/>
-    <row r="140" ht="13.5" customHeight="1"/>
-    <row r="141" ht="13.5" customHeight="1"/>
-    <row r="142" ht="13.5" customHeight="1"/>
-    <row r="143" ht="13.5" customHeight="1"/>
-    <row r="144" ht="13.5" customHeight="1"/>
-    <row r="145" ht="13.5" customHeight="1"/>
-    <row r="146" ht="13.5" customHeight="1"/>
-    <row r="147" ht="13.5" customHeight="1"/>
-    <row r="148" ht="13.5" customHeight="1"/>
-    <row r="149" ht="13.5" customHeight="1"/>
-    <row r="150" ht="13.5" customHeight="1"/>
-    <row r="151" ht="13.5" customHeight="1"/>
-    <row r="152" ht="13.5" customHeight="1"/>
-    <row r="153" ht="13.5" customHeight="1"/>
-    <row r="154" ht="13.5" customHeight="1"/>
-    <row r="155" ht="13.5" customHeight="1"/>
-    <row r="156" ht="13.5" customHeight="1"/>
-    <row r="157" ht="13.5" customHeight="1"/>
-    <row r="158" ht="13.5" customHeight="1"/>
-    <row r="159" ht="13.5" customHeight="1"/>
-    <row r="160" ht="13.5" customHeight="1"/>
-    <row r="161" ht="13.5" customHeight="1"/>
-    <row r="162" ht="13.5" customHeight="1"/>
-    <row r="163" ht="13.5" customHeight="1"/>
-    <row r="164" ht="13.5" customHeight="1"/>
-    <row r="165" ht="13.5" customHeight="1"/>
-    <row r="166" ht="13.5" customHeight="1"/>
-    <row r="167" ht="13.5" customHeight="1"/>
-    <row r="168" ht="13.5" customHeight="1"/>
-    <row r="169" ht="13.5" customHeight="1"/>
-    <row r="170" ht="13.5" customHeight="1"/>
-    <row r="171" ht="13.5" customHeight="1"/>
-    <row r="172" ht="13.5" customHeight="1"/>
-    <row r="173" ht="13.5" customHeight="1"/>
-    <row r="174" ht="13.5" customHeight="1"/>
-    <row r="175" ht="13.5" customHeight="1"/>
-    <row r="176" ht="13.5" customHeight="1"/>
-    <row r="177" ht="13.5" customHeight="1"/>
-    <row r="178" ht="13.5" customHeight="1"/>
-    <row r="179" ht="13.5" customHeight="1"/>
-    <row r="180" ht="13.5" customHeight="1"/>
-    <row r="181" ht="13.5" customHeight="1"/>
-    <row r="182" ht="13.5" customHeight="1"/>
-    <row r="183" ht="13.5" customHeight="1"/>
-    <row r="184" ht="13.5" customHeight="1"/>
-    <row r="185" ht="13.5" customHeight="1"/>
-    <row r="186" ht="13.5" customHeight="1"/>
-    <row r="187" ht="13.5" customHeight="1"/>
-    <row r="188" ht="13.5" customHeight="1"/>
-    <row r="189" ht="13.5" customHeight="1"/>
-    <row r="190" ht="13.5" customHeight="1"/>
-    <row r="191" ht="13.5" customHeight="1"/>
-    <row r="192" ht="13.5" customHeight="1"/>
-    <row r="193" ht="13.5" customHeight="1"/>
-    <row r="194" ht="13.5" customHeight="1"/>
-    <row r="195" ht="13.5" customHeight="1"/>
-    <row r="196" ht="13.5" customHeight="1"/>
-    <row r="197" ht="13.5" customHeight="1"/>
-    <row r="198" ht="13.5" customHeight="1"/>
-    <row r="199" ht="13.5" customHeight="1"/>
-    <row r="200" ht="13.5" customHeight="1"/>
-    <row r="201" ht="13.5" customHeight="1"/>
-    <row r="202" ht="13.5" customHeight="1"/>
-    <row r="203" ht="13.5" customHeight="1"/>
-    <row r="204" ht="13.5" customHeight="1"/>
-    <row r="205" ht="13.5" customHeight="1"/>
-    <row r="206" ht="13.5" customHeight="1"/>
-    <row r="207" ht="13.5" customHeight="1"/>
-    <row r="208" ht="13.5" customHeight="1"/>
-    <row r="209" ht="13.5" customHeight="1"/>
-    <row r="210" ht="13.5" customHeight="1"/>
-    <row r="211" ht="13.5" customHeight="1"/>
-    <row r="212" ht="13.5" customHeight="1"/>
-    <row r="213" ht="13.5" customHeight="1"/>
-    <row r="214" ht="13.5" customHeight="1"/>
-    <row r="215" ht="13.5" customHeight="1"/>
-    <row r="216" ht="13.5" customHeight="1"/>
-    <row r="217" ht="13.5" customHeight="1"/>
-    <row r="218" ht="13.5" customHeight="1"/>
-    <row r="219" ht="13.5" customHeight="1"/>
-    <row r="220" ht="13.5" customHeight="1"/>
-    <row r="221" ht="13.5" customHeight="1"/>
-    <row r="222" ht="13.5" customHeight="1"/>
-    <row r="223" ht="13.5" customHeight="1"/>
-    <row r="224" ht="13.5" customHeight="1"/>
-    <row r="225" ht="13.5" customHeight="1"/>
-    <row r="226" ht="13.5" customHeight="1"/>
-    <row r="227" ht="13.5" customHeight="1"/>
-    <row r="228" ht="13.5" customHeight="1"/>
-    <row r="229" ht="13.5" customHeight="1"/>
-    <row r="230" ht="13.5" customHeight="1"/>
-    <row r="231" ht="13.5" customHeight="1"/>
-    <row r="232" ht="13.5" customHeight="1"/>
-    <row r="233" ht="13.5" customHeight="1"/>
-    <row r="234" ht="13.5" customHeight="1"/>
-    <row r="235" ht="13.5" customHeight="1"/>
-    <row r="236" ht="13.5" customHeight="1"/>
-    <row r="237" ht="13.5" customHeight="1"/>
-    <row r="238" ht="13.5" customHeight="1"/>
-    <row r="239" ht="13.5" customHeight="1"/>
-    <row r="240" ht="13.5" customHeight="1"/>
-    <row r="241" ht="13.5" customHeight="1"/>
-    <row r="242" ht="13.5" customHeight="1"/>
-    <row r="243" ht="13.5" customHeight="1"/>
-    <row r="244" ht="13.5" customHeight="1"/>
-    <row r="245" ht="13.5" customHeight="1"/>
-    <row r="246" ht="13.5" customHeight="1"/>
-    <row r="247" ht="13.5" customHeight="1"/>
-    <row r="248" ht="13.5" customHeight="1"/>
-    <row r="249" ht="13.5" customHeight="1"/>
-    <row r="250" ht="13.5" customHeight="1"/>
-    <row r="251" ht="13.5" customHeight="1"/>
-    <row r="252" ht="13.5" customHeight="1"/>
-    <row r="253" ht="13.5" customHeight="1"/>
-    <row r="254" ht="13.5" customHeight="1"/>
-    <row r="255" ht="13.5" customHeight="1"/>
-    <row r="256" ht="13.5" customHeight="1"/>
-    <row r="257" ht="13.5" customHeight="1"/>
-    <row r="258" ht="13.5" customHeight="1"/>
-    <row r="259" ht="13.5" customHeight="1"/>
-    <row r="260" ht="13.5" customHeight="1"/>
-    <row r="261" ht="13.5" customHeight="1"/>
-    <row r="262" ht="13.5" customHeight="1"/>
-    <row r="263" ht="13.5" customHeight="1"/>
-    <row r="264" ht="13.5" customHeight="1"/>
-    <row r="265" ht="13.5" customHeight="1"/>
-    <row r="266" ht="13.5" customHeight="1"/>
-    <row r="267" ht="13.5" customHeight="1"/>
-    <row r="268" ht="13.5" customHeight="1"/>
-    <row r="269" ht="13.5" customHeight="1"/>
-    <row r="270" ht="13.5" customHeight="1"/>
-    <row r="271" ht="13.5" customHeight="1"/>
-    <row r="272" ht="13.5" customHeight="1"/>
-    <row r="273" ht="13.5" customHeight="1"/>
-    <row r="274" ht="13.5" customHeight="1"/>
-    <row r="275" ht="13.5" customHeight="1"/>
-    <row r="276" ht="13.5" customHeight="1"/>
-    <row r="277" ht="13.5" customHeight="1"/>
-    <row r="278" ht="13.5" customHeight="1"/>
-    <row r="279" ht="13.5" customHeight="1"/>
-    <row r="280" ht="13.5" customHeight="1"/>
-    <row r="281" ht="13.5" customHeight="1"/>
-    <row r="282" ht="13.5" customHeight="1"/>
-    <row r="283" ht="13.5" customHeight="1"/>
-    <row r="284" ht="13.5" customHeight="1"/>
-    <row r="285" ht="13.5" customHeight="1"/>
-    <row r="286" ht="13.5" customHeight="1"/>
-    <row r="287" ht="13.5" customHeight="1"/>
-    <row r="288" ht="13.5" customHeight="1"/>
-    <row r="289" ht="13.5" customHeight="1"/>
-    <row r="290" ht="13.5" customHeight="1"/>
-    <row r="291" ht="13.5" customHeight="1"/>
-    <row r="292" ht="13.5" customHeight="1"/>
-    <row r="293" ht="13.5" customHeight="1"/>
-    <row r="294" ht="13.5" customHeight="1"/>
-    <row r="295" ht="13.5" customHeight="1"/>
-    <row r="296" ht="13.5" customHeight="1"/>
-    <row r="297" ht="13.5" customHeight="1"/>
-    <row r="298" ht="13.5" customHeight="1"/>
-    <row r="299" ht="13.5" customHeight="1"/>
-    <row r="300" ht="13.5" customHeight="1"/>
-    <row r="301" ht="13.5" customHeight="1"/>
-    <row r="302" ht="13.5" customHeight="1"/>
-    <row r="303" ht="13.5" customHeight="1"/>
-    <row r="304" ht="13.5" customHeight="1"/>
-    <row r="305" ht="13.5" customHeight="1"/>
-    <row r="306" ht="13.5" customHeight="1"/>
-    <row r="307" ht="13.5" customHeight="1"/>
-    <row r="308" ht="13.5" customHeight="1"/>
-    <row r="309" ht="13.5" customHeight="1"/>
-    <row r="310" ht="13.5" customHeight="1"/>
-    <row r="311" ht="13.5" customHeight="1"/>
-    <row r="312" ht="13.5" customHeight="1"/>
-    <row r="313" ht="13.5" customHeight="1"/>
-    <row r="314" ht="13.5" customHeight="1"/>
-    <row r="315" ht="13.5" customHeight="1"/>
-    <row r="316" ht="13.5" customHeight="1"/>
-    <row r="317" ht="13.5" customHeight="1"/>
-    <row r="318" ht="13.5" customHeight="1"/>
-    <row r="319" ht="13.5" customHeight="1"/>
-    <row r="320" ht="13.5" customHeight="1"/>
-    <row r="321" ht="13.5" customHeight="1"/>
-    <row r="322" ht="13.5" customHeight="1"/>
-    <row r="323" ht="13.5" customHeight="1"/>
-    <row r="324" ht="13.5" customHeight="1"/>
-    <row r="325" ht="13.5" customHeight="1"/>
-    <row r="326" ht="13.5" customHeight="1"/>
-    <row r="327" ht="13.5" customHeight="1"/>
-    <row r="328" ht="13.5" customHeight="1"/>
-    <row r="329" ht="13.5" customHeight="1"/>
-    <row r="330" ht="13.5" customHeight="1"/>
-    <row r="331" ht="13.5" customHeight="1"/>
-    <row r="332" ht="13.5" customHeight="1"/>
-    <row r="333" ht="13.5" customHeight="1"/>
-    <row r="334" ht="13.5" customHeight="1"/>
-    <row r="335" ht="13.5" customHeight="1"/>
-    <row r="336" ht="13.5" customHeight="1"/>
-    <row r="337" ht="13.5" customHeight="1"/>
-    <row r="338" ht="13.5" customHeight="1"/>
-    <row r="339" ht="13.5" customHeight="1"/>
-    <row r="340" ht="13.5" customHeight="1"/>
-    <row r="341" ht="13.5" customHeight="1"/>
-    <row r="342" ht="13.5" customHeight="1"/>
-    <row r="343" ht="13.5" customHeight="1"/>
-    <row r="344" ht="13.5" customHeight="1"/>
-    <row r="345" ht="13.5" customHeight="1"/>
-    <row r="346" ht="13.5" customHeight="1"/>
-    <row r="347" ht="13.5" customHeight="1"/>
-    <row r="348" ht="13.5" customHeight="1"/>
-    <row r="349" ht="13.5" customHeight="1"/>
-    <row r="350" ht="13.5" customHeight="1"/>
-    <row r="351" ht="13.5" customHeight="1"/>
-    <row r="352" ht="13.5" customHeight="1"/>
-    <row r="353" ht="13.5" customHeight="1"/>
-    <row r="354" ht="13.5" customHeight="1"/>
-    <row r="355" ht="13.5" customHeight="1"/>
-    <row r="356" ht="13.5" customHeight="1"/>
-    <row r="357" ht="13.5" customHeight="1"/>
-    <row r="358" ht="13.5" customHeight="1"/>
-    <row r="359" ht="13.5" customHeight="1"/>
-    <row r="360" ht="13.5" customHeight="1"/>
-    <row r="361" ht="13.5" customHeight="1"/>
-    <row r="362" ht="13.5" customHeight="1"/>
-    <row r="363" ht="13.5" customHeight="1"/>
-    <row r="364" ht="13.5" customHeight="1"/>
-    <row r="365" ht="13.5" customHeight="1"/>
-    <row r="366" ht="13.5" customHeight="1"/>
-    <row r="367" ht="13.5" customHeight="1"/>
-    <row r="368" ht="13.5" customHeight="1"/>
-    <row r="369" ht="13.5" customHeight="1"/>
-    <row r="370" ht="13.5" customHeight="1"/>
-    <row r="371" ht="13.5" customHeight="1"/>
-    <row r="372" ht="13.5" customHeight="1"/>
-    <row r="373" ht="13.5" customHeight="1"/>
-    <row r="374" ht="13.5" customHeight="1"/>
-    <row r="375" ht="13.5" customHeight="1"/>
-    <row r="376" ht="13.5" customHeight="1"/>
-    <row r="377" ht="13.5" customHeight="1"/>
-    <row r="378" ht="13.5" customHeight="1"/>
-    <row r="379" ht="13.5" customHeight="1"/>
-    <row r="380" ht="13.5" customHeight="1"/>
-    <row r="381" ht="13.5" customHeight="1"/>
-    <row r="382" ht="13.5" customHeight="1"/>
-    <row r="383" ht="13.5" customHeight="1"/>
-    <row r="384" ht="13.5" customHeight="1"/>
-    <row r="385" ht="13.5" customHeight="1"/>
-    <row r="386" ht="13.5" customHeight="1"/>
-    <row r="387" ht="13.5" customHeight="1"/>
-    <row r="388" ht="13.5" customHeight="1"/>
-    <row r="389" ht="13.5" customHeight="1"/>
-    <row r="390" ht="13.5" customHeight="1"/>
-    <row r="391" ht="13.5" customHeight="1"/>
-    <row r="392" ht="13.5" customHeight="1"/>
-    <row r="393" ht="13.5" customHeight="1"/>
-    <row r="394" ht="13.5" customHeight="1"/>
-    <row r="395" ht="13.5" customHeight="1"/>
-    <row r="396" ht="13.5" customHeight="1"/>
-    <row r="397" ht="13.5" customHeight="1"/>
-    <row r="398" ht="13.5" customHeight="1"/>
-    <row r="399" ht="13.5" customHeight="1"/>
-    <row r="400" ht="13.5" customHeight="1"/>
-    <row r="401" ht="13.5" customHeight="1"/>
-    <row r="402" ht="13.5" customHeight="1"/>
-    <row r="403" ht="13.5" customHeight="1"/>
-    <row r="404" ht="13.5" customHeight="1"/>
-    <row r="405" ht="13.5" customHeight="1"/>
-    <row r="406" ht="13.5" customHeight="1"/>
-    <row r="407" ht="13.5" customHeight="1"/>
-    <row r="408" ht="13.5" customHeight="1"/>
-    <row r="409" ht="13.5" customHeight="1"/>
-    <row r="410" ht="13.5" customHeight="1"/>
-    <row r="411" ht="13.5" customHeight="1"/>
-    <row r="412" ht="13.5" customHeight="1"/>
-    <row r="413" ht="13.5" customHeight="1"/>
-    <row r="414" ht="13.5" customHeight="1"/>
-    <row r="415" ht="13.5" customHeight="1"/>
-    <row r="416" ht="13.5" customHeight="1"/>
-    <row r="417" ht="13.5" customHeight="1"/>
-    <row r="418" ht="13.5" customHeight="1"/>
-    <row r="419" ht="13.5" customHeight="1"/>
-    <row r="420" ht="13.5" customHeight="1"/>
-    <row r="421" ht="13.5" customHeight="1"/>
-    <row r="422" ht="13.5" customHeight="1"/>
-    <row r="423" ht="13.5" customHeight="1"/>
-    <row r="424" ht="13.5" customHeight="1"/>
-    <row r="425" ht="13.5" customHeight="1"/>
-    <row r="426" ht="13.5" customHeight="1"/>
-    <row r="427" ht="13.5" customHeight="1"/>
-    <row r="428" ht="13.5" customHeight="1"/>
-    <row r="429" ht="13.5" customHeight="1"/>
-    <row r="430" ht="13.5" customHeight="1"/>
-    <row r="431" ht="13.5" customHeight="1"/>
-    <row r="432" ht="13.5" customHeight="1"/>
-    <row r="433" ht="13.5" customHeight="1"/>
-    <row r="434" ht="13.5" customHeight="1"/>
-    <row r="435" ht="13.5" customHeight="1"/>
-    <row r="436" ht="13.5" customHeight="1"/>
-    <row r="437" ht="13.5" customHeight="1"/>
-    <row r="438" ht="13.5" customHeight="1"/>
-    <row r="439" ht="13.5" customHeight="1"/>
-    <row r="440" ht="13.5" customHeight="1"/>
-    <row r="441" ht="13.5" customHeight="1"/>
-    <row r="442" ht="13.5" customHeight="1"/>
-    <row r="443" ht="13.5" customHeight="1"/>
-    <row r="444" ht="13.5" customHeight="1"/>
-    <row r="445" ht="13.5" customHeight="1"/>
-    <row r="446" ht="13.5" customHeight="1"/>
-    <row r="447" ht="13.5" customHeight="1"/>
-    <row r="448" ht="13.5" customHeight="1"/>
-    <row r="449" ht="13.5" customHeight="1"/>
-    <row r="450" ht="13.5" customHeight="1"/>
-    <row r="451" ht="13.5" customHeight="1"/>
-    <row r="452" ht="13.5" customHeight="1"/>
-    <row r="453" ht="13.5" customHeight="1"/>
-    <row r="454" ht="13.5" customHeight="1"/>
-    <row r="455" ht="13.5" customHeight="1"/>
-    <row r="456" ht="13.5" customHeight="1"/>
-    <row r="457" ht="13.5" customHeight="1"/>
-    <row r="458" ht="13.5" customHeight="1"/>
-    <row r="459" ht="13.5" customHeight="1"/>
-    <row r="460" ht="13.5" customHeight="1"/>
-    <row r="461" ht="13.5" customHeight="1"/>
-    <row r="462" ht="13.5" customHeight="1"/>
-    <row r="463" ht="13.5" customHeight="1"/>
-    <row r="464" ht="13.5" customHeight="1"/>
-    <row r="465" ht="13.5" customHeight="1"/>
-    <row r="466" ht="13.5" customHeight="1"/>
-    <row r="467" ht="13.5" customHeight="1"/>
-    <row r="468" ht="13.5" customHeight="1"/>
-    <row r="469" ht="13.5" customHeight="1"/>
-    <row r="470" ht="13.5" customHeight="1"/>
-    <row r="471" ht="13.5" customHeight="1"/>
-    <row r="472" ht="13.5" customHeight="1"/>
-    <row r="473" ht="13.5" customHeight="1"/>
-    <row r="474" ht="13.5" customHeight="1"/>
-    <row r="475" ht="13.5" customHeight="1"/>
-    <row r="476" ht="13.5" customHeight="1"/>
-    <row r="477" ht="13.5" customHeight="1"/>
-    <row r="478" ht="13.5" customHeight="1"/>
-    <row r="479" ht="13.5" customHeight="1"/>
-    <row r="480" ht="13.5" customHeight="1"/>
-    <row r="481" ht="13.5" customHeight="1"/>
-    <row r="482" ht="13.5" customHeight="1"/>
-    <row r="483" ht="13.5" customHeight="1"/>
-    <row r="484" ht="13.5" customHeight="1"/>
-    <row r="485" ht="13.5" customHeight="1"/>
-    <row r="486" ht="13.5" customHeight="1"/>
-    <row r="487" ht="13.5" customHeight="1"/>
-    <row r="488" ht="13.5" customHeight="1"/>
-    <row r="489" ht="13.5" customHeight="1"/>
-    <row r="490" ht="13.5" customHeight="1"/>
-    <row r="491" ht="13.5" customHeight="1"/>
-    <row r="492" ht="13.5" customHeight="1"/>
-    <row r="493" ht="13.5" customHeight="1"/>
-    <row r="494" ht="13.5" customHeight="1"/>
-    <row r="495" ht="13.5" customHeight="1"/>
-    <row r="496" ht="13.5" customHeight="1"/>
-    <row r="497" ht="13.5" customHeight="1"/>
-    <row r="498" ht="13.5" customHeight="1"/>
-    <row r="499" ht="13.5" customHeight="1"/>
-    <row r="500" ht="13.5" customHeight="1"/>
-    <row r="501" ht="13.5" customHeight="1"/>
-    <row r="502" ht="13.5" customHeight="1"/>
-    <row r="503" ht="13.5" customHeight="1"/>
-    <row r="504" ht="13.5" customHeight="1"/>
-    <row r="505" ht="13.5" customHeight="1"/>
-    <row r="506" ht="13.5" customHeight="1"/>
-    <row r="507" ht="13.5" customHeight="1"/>
-    <row r="508" ht="13.5" customHeight="1"/>
-    <row r="509" ht="13.5" customHeight="1"/>
-    <row r="510" ht="13.5" customHeight="1"/>
-    <row r="511" ht="13.5" customHeight="1"/>
-    <row r="512" ht="13.5" customHeight="1"/>
-    <row r="513" ht="13.5" customHeight="1"/>
+    <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="I25:K25"/>
@@ -3446,169 +3468,169 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="4.83203125" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="11" customFormat="1">
-      <c r="A1" s="182" t="s">
+    <row r="1" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="183"/>
-      <c r="C1" s="183"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="152" t="s">
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="182" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="153"/>
-      <c r="I1" s="153"/>
-      <c r="J1" s="153"/>
-      <c r="K1" s="153"/>
-      <c r="L1" s="153"/>
-      <c r="M1" s="153"/>
-      <c r="N1" s="154"/>
-      <c r="O1" s="185" t="s">
+      <c r="F1" s="183"/>
+      <c r="G1" s="183"/>
+      <c r="H1" s="183"/>
+      <c r="I1" s="183"/>
+      <c r="J1" s="183"/>
+      <c r="K1" s="183"/>
+      <c r="L1" s="183"/>
+      <c r="M1" s="183"/>
+      <c r="N1" s="184"/>
+      <c r="O1" s="138" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="186"/>
-      <c r="Q1" s="186"/>
-      <c r="R1" s="187"/>
-      <c r="S1" s="164" t="s">
-        <v>82</v>
-      </c>
-      <c r="T1" s="165"/>
-      <c r="U1" s="165"/>
-      <c r="V1" s="165"/>
-      <c r="W1" s="165"/>
-      <c r="X1" s="165"/>
-      <c r="Y1" s="165"/>
-      <c r="Z1" s="166"/>
-      <c r="AA1" s="182" t="s">
+      <c r="P1" s="139"/>
+      <c r="Q1" s="139"/>
+      <c r="R1" s="140"/>
+      <c r="S1" s="188" t="s">
+        <v>80</v>
+      </c>
+      <c r="T1" s="189"/>
+      <c r="U1" s="189"/>
+      <c r="V1" s="189"/>
+      <c r="W1" s="189"/>
+      <c r="X1" s="189"/>
+      <c r="Y1" s="189"/>
+      <c r="Z1" s="190"/>
+      <c r="AA1" s="135" t="s">
         <v>28</v>
       </c>
-      <c r="AB1" s="184"/>
-      <c r="AC1" s="134" t="str">
+      <c r="AB1" s="137"/>
+      <c r="AC1" s="170" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="135"/>
-      <c r="AE1" s="135"/>
-      <c r="AF1" s="136"/>
-      <c r="AG1" s="140">
+      <c r="AD1" s="171"/>
+      <c r="AE1" s="171"/>
+      <c r="AF1" s="172"/>
+      <c r="AG1" s="176">
         <v>43697</v>
       </c>
-      <c r="AH1" s="141"/>
-      <c r="AI1" s="142"/>
+      <c r="AH1" s="177"/>
+      <c r="AI1" s="178"/>
       <c r="AJ1" s="9"/>
       <c r="AK1" s="9"/>
       <c r="AL1" s="9"/>
       <c r="AM1" s="9"/>
       <c r="AN1" s="10"/>
     </row>
-    <row r="2" spans="1:40" s="11" customFormat="1">
-      <c r="A2" s="182" t="s">
+    <row r="2" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="135" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="183"/>
-      <c r="C2" s="183"/>
-      <c r="D2" s="184"/>
-      <c r="E2" s="152" t="s">
+      <c r="B2" s="136"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="137"/>
+      <c r="E2" s="182" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="153"/>
-      <c r="J2" s="153"/>
-      <c r="K2" s="153"/>
-      <c r="L2" s="153"/>
-      <c r="M2" s="153"/>
-      <c r="N2" s="154"/>
-      <c r="O2" s="188"/>
-      <c r="P2" s="189"/>
-      <c r="Q2" s="189"/>
-      <c r="R2" s="190"/>
-      <c r="S2" s="167"/>
-      <c r="T2" s="168"/>
-      <c r="U2" s="168"/>
-      <c r="V2" s="168"/>
-      <c r="W2" s="168"/>
-      <c r="X2" s="168"/>
-      <c r="Y2" s="168"/>
-      <c r="Z2" s="169"/>
-      <c r="AA2" s="182" t="s">
+      <c r="F2" s="183"/>
+      <c r="G2" s="183"/>
+      <c r="H2" s="183"/>
+      <c r="I2" s="183"/>
+      <c r="J2" s="183"/>
+      <c r="K2" s="183"/>
+      <c r="L2" s="183"/>
+      <c r="M2" s="183"/>
+      <c r="N2" s="184"/>
+      <c r="O2" s="141"/>
+      <c r="P2" s="142"/>
+      <c r="Q2" s="142"/>
+      <c r="R2" s="143"/>
+      <c r="S2" s="191"/>
+      <c r="T2" s="192"/>
+      <c r="U2" s="192"/>
+      <c r="V2" s="192"/>
+      <c r="W2" s="192"/>
+      <c r="X2" s="192"/>
+      <c r="Y2" s="192"/>
+      <c r="Z2" s="193"/>
+      <c r="AA2" s="135" t="s">
         <v>29</v>
       </c>
-      <c r="AB2" s="184"/>
-      <c r="AC2" s="143" t="str">
+      <c r="AB2" s="137"/>
+      <c r="AC2" s="179" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="144"/>
-      <c r="AE2" s="144"/>
-      <c r="AF2" s="145"/>
-      <c r="AG2" s="140" t="str">
+      <c r="AD2" s="180"/>
+      <c r="AE2" s="180"/>
+      <c r="AF2" s="181"/>
+      <c r="AG2" s="176" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="141"/>
-      <c r="AI2" s="142"/>
+      <c r="AH2" s="177"/>
+      <c r="AI2" s="178"/>
       <c r="AJ2" s="9"/>
       <c r="AK2" s="9"/>
       <c r="AL2" s="9"/>
       <c r="AM2" s="9"/>
       <c r="AN2" s="9"/>
     </row>
-    <row r="3" spans="1:40" s="11" customFormat="1">
-      <c r="A3" s="182" t="s">
+    <row r="3" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="183"/>
-      <c r="C3" s="183"/>
-      <c r="D3" s="184"/>
-      <c r="E3" s="152" t="s">
+      <c r="B3" s="136"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="182" t="s">
         <v>78</v>
       </c>
-      <c r="F3" s="153"/>
-      <c r="G3" s="153"/>
-      <c r="H3" s="153"/>
-      <c r="I3" s="153"/>
-      <c r="J3" s="153"/>
-      <c r="K3" s="153"/>
-      <c r="L3" s="153"/>
-      <c r="M3" s="153"/>
-      <c r="N3" s="154"/>
-      <c r="O3" s="191"/>
-      <c r="P3" s="192"/>
-      <c r="Q3" s="192"/>
-      <c r="R3" s="193"/>
-      <c r="S3" s="170"/>
-      <c r="T3" s="171"/>
-      <c r="U3" s="171"/>
-      <c r="V3" s="171"/>
-      <c r="W3" s="171"/>
-      <c r="X3" s="171"/>
-      <c r="Y3" s="171"/>
-      <c r="Z3" s="172"/>
-      <c r="AA3" s="194"/>
-      <c r="AB3" s="195"/>
-      <c r="AC3" s="134"/>
-      <c r="AD3" s="135"/>
-      <c r="AE3" s="135"/>
-      <c r="AF3" s="136"/>
-      <c r="AG3" s="140"/>
-      <c r="AH3" s="141"/>
-      <c r="AI3" s="142"/>
+      <c r="F3" s="183"/>
+      <c r="G3" s="183"/>
+      <c r="H3" s="183"/>
+      <c r="I3" s="183"/>
+      <c r="J3" s="183"/>
+      <c r="K3" s="183"/>
+      <c r="L3" s="183"/>
+      <c r="M3" s="183"/>
+      <c r="N3" s="184"/>
+      <c r="O3" s="144"/>
+      <c r="P3" s="145"/>
+      <c r="Q3" s="145"/>
+      <c r="R3" s="146"/>
+      <c r="S3" s="194"/>
+      <c r="T3" s="195"/>
+      <c r="U3" s="195"/>
+      <c r="V3" s="195"/>
+      <c r="W3" s="195"/>
+      <c r="X3" s="195"/>
+      <c r="Y3" s="195"/>
+      <c r="Z3" s="196"/>
+      <c r="AA3" s="147"/>
+      <c r="AB3" s="148"/>
+      <c r="AC3" s="170"/>
+      <c r="AD3" s="171"/>
+      <c r="AE3" s="171"/>
+      <c r="AF3" s="172"/>
+      <c r="AG3" s="176"/>
+      <c r="AH3" s="177"/>
+      <c r="AI3" s="178"/>
       <c r="AJ3" s="9"/>
       <c r="AK3" s="9"/>
       <c r="AL3" s="9"/>
       <c r="AM3" s="9"/>
       <c r="AN3" s="9"/>
     </row>
-    <row r="4" spans="1:40" s="16" customFormat="1">
+    <row r="4" spans="1:40" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="17"/>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -3650,7 +3672,7 @@
       <c r="AM4" s="17"/>
       <c r="AN4" s="17"/>
     </row>
-    <row r="5" spans="1:40" s="18" customFormat="1" ht="22.5" customHeight="1">
+    <row r="5" spans="1:40" s="18" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -3694,7 +3716,7 @@
       <c r="AM5" s="13"/>
       <c r="AN5" s="13"/>
     </row>
-    <row r="6" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="6" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -3736,1034 +3758,1034 @@
       <c r="AM6" s="13"/>
       <c r="AN6" s="13"/>
     </row>
-    <row r="7" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="7" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="149" t="s">
+      <c r="B7" s="161" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="151"/>
-      <c r="D7" s="149" t="s">
+      <c r="C7" s="162"/>
+      <c r="D7" s="161" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="150"/>
-      <c r="F7" s="151"/>
-      <c r="G7" s="149" t="s">
+      <c r="E7" s="163"/>
+      <c r="F7" s="162"/>
+      <c r="G7" s="161" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="150"/>
-      <c r="I7" s="151"/>
-      <c r="J7" s="149" t="s">
+      <c r="H7" s="163"/>
+      <c r="I7" s="162"/>
+      <c r="J7" s="161" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="150"/>
-      <c r="L7" s="150"/>
-      <c r="M7" s="150"/>
-      <c r="N7" s="150"/>
-      <c r="O7" s="150"/>
-      <c r="P7" s="151"/>
-      <c r="Q7" s="149" t="s">
+      <c r="K7" s="163"/>
+      <c r="L7" s="163"/>
+      <c r="M7" s="163"/>
+      <c r="N7" s="163"/>
+      <c r="O7" s="163"/>
+      <c r="P7" s="162"/>
+      <c r="Q7" s="161" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="150"/>
-      <c r="S7" s="150"/>
-      <c r="T7" s="150"/>
-      <c r="U7" s="150"/>
-      <c r="V7" s="150"/>
-      <c r="W7" s="150"/>
-      <c r="X7" s="150"/>
-      <c r="Y7" s="150"/>
-      <c r="Z7" s="150"/>
-      <c r="AA7" s="150"/>
-      <c r="AB7" s="150"/>
-      <c r="AC7" s="150"/>
-      <c r="AD7" s="150"/>
-      <c r="AE7" s="151"/>
-      <c r="AF7" s="149" t="s">
+      <c r="R7" s="163"/>
+      <c r="S7" s="163"/>
+      <c r="T7" s="163"/>
+      <c r="U7" s="163"/>
+      <c r="V7" s="163"/>
+      <c r="W7" s="163"/>
+      <c r="X7" s="163"/>
+      <c r="Y7" s="163"/>
+      <c r="Z7" s="163"/>
+      <c r="AA7" s="163"/>
+      <c r="AB7" s="163"/>
+      <c r="AC7" s="163"/>
+      <c r="AD7" s="163"/>
+      <c r="AE7" s="162"/>
+      <c r="AF7" s="161" t="s">
         <v>10</v>
       </c>
-      <c r="AG7" s="150"/>
-      <c r="AH7" s="150"/>
-      <c r="AI7" s="151"/>
-    </row>
-    <row r="8" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" thickTop="1">
+      <c r="AG7" s="163"/>
+      <c r="AH7" s="163"/>
+      <c r="AI7" s="162"/>
+    </row>
+    <row r="8" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="56">
         <v>1</v>
       </c>
-      <c r="B8" s="176" t="s">
+      <c r="B8" s="164" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="177"/>
-      <c r="D8" s="178">
+      <c r="C8" s="165"/>
+      <c r="D8" s="166">
         <v>43697</v>
       </c>
-      <c r="E8" s="179"/>
-      <c r="F8" s="180"/>
-      <c r="G8" s="176" t="s">
+      <c r="E8" s="167"/>
+      <c r="F8" s="168"/>
+      <c r="G8" s="164" t="s">
         <v>65</v>
       </c>
-      <c r="H8" s="181"/>
-      <c r="I8" s="177"/>
-      <c r="J8" s="161" t="s">
+      <c r="H8" s="169"/>
+      <c r="I8" s="165"/>
+      <c r="J8" s="185" t="s">
         <v>66</v>
       </c>
-      <c r="K8" s="162"/>
-      <c r="L8" s="162"/>
-      <c r="M8" s="162"/>
-      <c r="N8" s="162"/>
-      <c r="O8" s="162"/>
-      <c r="P8" s="163"/>
-      <c r="Q8" s="137" t="s">
+      <c r="K8" s="186"/>
+      <c r="L8" s="186"/>
+      <c r="M8" s="186"/>
+      <c r="N8" s="186"/>
+      <c r="O8" s="186"/>
+      <c r="P8" s="187"/>
+      <c r="Q8" s="173" t="s">
         <v>67</v>
       </c>
-      <c r="R8" s="138"/>
-      <c r="S8" s="138"/>
-      <c r="T8" s="138"/>
-      <c r="U8" s="138"/>
-      <c r="V8" s="138"/>
-      <c r="W8" s="138"/>
-      <c r="X8" s="138"/>
-      <c r="Y8" s="138"/>
-      <c r="Z8" s="138"/>
-      <c r="AA8" s="138"/>
-      <c r="AB8" s="138"/>
-      <c r="AC8" s="138"/>
-      <c r="AD8" s="138"/>
-      <c r="AE8" s="139"/>
-      <c r="AF8" s="161" t="s">
+      <c r="R8" s="174"/>
+      <c r="S8" s="174"/>
+      <c r="T8" s="174"/>
+      <c r="U8" s="174"/>
+      <c r="V8" s="174"/>
+      <c r="W8" s="174"/>
+      <c r="X8" s="174"/>
+      <c r="Y8" s="174"/>
+      <c r="Z8" s="174"/>
+      <c r="AA8" s="174"/>
+      <c r="AB8" s="174"/>
+      <c r="AC8" s="174"/>
+      <c r="AD8" s="174"/>
+      <c r="AE8" s="175"/>
+      <c r="AF8" s="185" t="s">
         <v>68</v>
       </c>
-      <c r="AG8" s="162"/>
-      <c r="AH8" s="162"/>
-      <c r="AI8" s="163"/>
-    </row>
-    <row r="9" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="AG8" s="186"/>
+      <c r="AH8" s="186"/>
+      <c r="AI8" s="187"/>
+    </row>
+    <row r="9" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="57"/>
-      <c r="B9" s="146"/>
-      <c r="C9" s="148"/>
-      <c r="D9" s="173"/>
-      <c r="E9" s="174"/>
-      <c r="F9" s="175"/>
-      <c r="G9" s="146"/>
-      <c r="H9" s="147"/>
-      <c r="I9" s="148"/>
-      <c r="J9" s="158"/>
-      <c r="K9" s="159"/>
-      <c r="L9" s="159"/>
-      <c r="M9" s="159"/>
-      <c r="N9" s="159"/>
-      <c r="O9" s="159"/>
-      <c r="P9" s="160"/>
-      <c r="Q9" s="155"/>
-      <c r="R9" s="156"/>
-      <c r="S9" s="156"/>
-      <c r="T9" s="156"/>
-      <c r="U9" s="156"/>
-      <c r="V9" s="156"/>
-      <c r="W9" s="156"/>
-      <c r="X9" s="156"/>
-      <c r="Y9" s="156"/>
-      <c r="Z9" s="156"/>
-      <c r="AA9" s="156"/>
-      <c r="AB9" s="156"/>
-      <c r="AC9" s="156"/>
-      <c r="AD9" s="156"/>
-      <c r="AE9" s="157"/>
-      <c r="AF9" s="158"/>
-      <c r="AG9" s="159"/>
-      <c r="AH9" s="159"/>
-      <c r="AI9" s="160"/>
-    </row>
-    <row r="10" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="B9" s="155"/>
+      <c r="C9" s="156"/>
+      <c r="D9" s="157"/>
+      <c r="E9" s="158"/>
+      <c r="F9" s="159"/>
+      <c r="G9" s="155"/>
+      <c r="H9" s="160"/>
+      <c r="I9" s="156"/>
+      <c r="J9" s="152"/>
+      <c r="K9" s="153"/>
+      <c r="L9" s="153"/>
+      <c r="M9" s="153"/>
+      <c r="N9" s="153"/>
+      <c r="O9" s="153"/>
+      <c r="P9" s="154"/>
+      <c r="Q9" s="149"/>
+      <c r="R9" s="150"/>
+      <c r="S9" s="150"/>
+      <c r="T9" s="150"/>
+      <c r="U9" s="150"/>
+      <c r="V9" s="150"/>
+      <c r="W9" s="150"/>
+      <c r="X9" s="150"/>
+      <c r="Y9" s="150"/>
+      <c r="Z9" s="150"/>
+      <c r="AA9" s="150"/>
+      <c r="AB9" s="150"/>
+      <c r="AC9" s="150"/>
+      <c r="AD9" s="150"/>
+      <c r="AE9" s="151"/>
+      <c r="AF9" s="152"/>
+      <c r="AG9" s="153"/>
+      <c r="AH9" s="153"/>
+      <c r="AI9" s="154"/>
+    </row>
+    <row r="10" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="57"/>
-      <c r="B10" s="146"/>
-      <c r="C10" s="148"/>
-      <c r="D10" s="173"/>
-      <c r="E10" s="174"/>
-      <c r="F10" s="175"/>
-      <c r="G10" s="146"/>
-      <c r="H10" s="147"/>
-      <c r="I10" s="148"/>
-      <c r="J10" s="158"/>
-      <c r="K10" s="159"/>
-      <c r="L10" s="159"/>
-      <c r="M10" s="159"/>
-      <c r="N10" s="159"/>
-      <c r="O10" s="159"/>
-      <c r="P10" s="160"/>
-      <c r="Q10" s="155"/>
-      <c r="R10" s="156"/>
-      <c r="S10" s="156"/>
-      <c r="T10" s="156"/>
-      <c r="U10" s="156"/>
-      <c r="V10" s="156"/>
-      <c r="W10" s="156"/>
-      <c r="X10" s="156"/>
-      <c r="Y10" s="156"/>
-      <c r="Z10" s="156"/>
-      <c r="AA10" s="156"/>
-      <c r="AB10" s="156"/>
-      <c r="AC10" s="156"/>
-      <c r="AD10" s="156"/>
-      <c r="AE10" s="157"/>
-      <c r="AF10" s="158"/>
-      <c r="AG10" s="159"/>
-      <c r="AH10" s="159"/>
-      <c r="AI10" s="160"/>
-    </row>
-    <row r="11" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="B10" s="155"/>
+      <c r="C10" s="156"/>
+      <c r="D10" s="157"/>
+      <c r="E10" s="158"/>
+      <c r="F10" s="159"/>
+      <c r="G10" s="155"/>
+      <c r="H10" s="160"/>
+      <c r="I10" s="156"/>
+      <c r="J10" s="152"/>
+      <c r="K10" s="153"/>
+      <c r="L10" s="153"/>
+      <c r="M10" s="153"/>
+      <c r="N10" s="153"/>
+      <c r="O10" s="153"/>
+      <c r="P10" s="154"/>
+      <c r="Q10" s="149"/>
+      <c r="R10" s="150"/>
+      <c r="S10" s="150"/>
+      <c r="T10" s="150"/>
+      <c r="U10" s="150"/>
+      <c r="V10" s="150"/>
+      <c r="W10" s="150"/>
+      <c r="X10" s="150"/>
+      <c r="Y10" s="150"/>
+      <c r="Z10" s="150"/>
+      <c r="AA10" s="150"/>
+      <c r="AB10" s="150"/>
+      <c r="AC10" s="150"/>
+      <c r="AD10" s="150"/>
+      <c r="AE10" s="151"/>
+      <c r="AF10" s="152"/>
+      <c r="AG10" s="153"/>
+      <c r="AH10" s="153"/>
+      <c r="AI10" s="154"/>
+    </row>
+    <row r="11" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="57"/>
-      <c r="B11" s="146"/>
-      <c r="C11" s="148"/>
-      <c r="D11" s="173"/>
-      <c r="E11" s="174"/>
-      <c r="F11" s="175"/>
-      <c r="G11" s="146"/>
-      <c r="H11" s="147"/>
-      <c r="I11" s="148"/>
-      <c r="J11" s="158"/>
-      <c r="K11" s="159"/>
-      <c r="L11" s="159"/>
-      <c r="M11" s="159"/>
-      <c r="N11" s="159"/>
-      <c r="O11" s="159"/>
-      <c r="P11" s="160"/>
-      <c r="Q11" s="155"/>
-      <c r="R11" s="156"/>
-      <c r="S11" s="156"/>
-      <c r="T11" s="156"/>
-      <c r="U11" s="156"/>
-      <c r="V11" s="156"/>
-      <c r="W11" s="156"/>
-      <c r="X11" s="156"/>
-      <c r="Y11" s="156"/>
-      <c r="Z11" s="156"/>
-      <c r="AA11" s="156"/>
-      <c r="AB11" s="156"/>
-      <c r="AC11" s="156"/>
-      <c r="AD11" s="156"/>
-      <c r="AE11" s="157"/>
-      <c r="AF11" s="158"/>
-      <c r="AG11" s="159"/>
-      <c r="AH11" s="159"/>
-      <c r="AI11" s="160"/>
-    </row>
-    <row r="12" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="B11" s="155"/>
+      <c r="C11" s="156"/>
+      <c r="D11" s="157"/>
+      <c r="E11" s="158"/>
+      <c r="F11" s="159"/>
+      <c r="G11" s="155"/>
+      <c r="H11" s="160"/>
+      <c r="I11" s="156"/>
+      <c r="J11" s="152"/>
+      <c r="K11" s="153"/>
+      <c r="L11" s="153"/>
+      <c r="M11" s="153"/>
+      <c r="N11" s="153"/>
+      <c r="O11" s="153"/>
+      <c r="P11" s="154"/>
+      <c r="Q11" s="149"/>
+      <c r="R11" s="150"/>
+      <c r="S11" s="150"/>
+      <c r="T11" s="150"/>
+      <c r="U11" s="150"/>
+      <c r="V11" s="150"/>
+      <c r="W11" s="150"/>
+      <c r="X11" s="150"/>
+      <c r="Y11" s="150"/>
+      <c r="Z11" s="150"/>
+      <c r="AA11" s="150"/>
+      <c r="AB11" s="150"/>
+      <c r="AC11" s="150"/>
+      <c r="AD11" s="150"/>
+      <c r="AE11" s="151"/>
+      <c r="AF11" s="152"/>
+      <c r="AG11" s="153"/>
+      <c r="AH11" s="153"/>
+      <c r="AI11" s="154"/>
+    </row>
+    <row r="12" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="57"/>
-      <c r="B12" s="146"/>
-      <c r="C12" s="148"/>
-      <c r="D12" s="173"/>
-      <c r="E12" s="174"/>
-      <c r="F12" s="175"/>
-      <c r="G12" s="146"/>
-      <c r="H12" s="147"/>
-      <c r="I12" s="148"/>
-      <c r="J12" s="158"/>
-      <c r="K12" s="159"/>
-      <c r="L12" s="159"/>
-      <c r="M12" s="159"/>
-      <c r="N12" s="159"/>
-      <c r="O12" s="159"/>
-      <c r="P12" s="160"/>
-      <c r="Q12" s="155"/>
-      <c r="R12" s="156"/>
-      <c r="S12" s="156"/>
-      <c r="T12" s="156"/>
-      <c r="U12" s="156"/>
-      <c r="V12" s="156"/>
-      <c r="W12" s="156"/>
-      <c r="X12" s="156"/>
-      <c r="Y12" s="156"/>
-      <c r="Z12" s="156"/>
-      <c r="AA12" s="156"/>
-      <c r="AB12" s="156"/>
-      <c r="AC12" s="156"/>
-      <c r="AD12" s="156"/>
-      <c r="AE12" s="157"/>
-      <c r="AF12" s="158"/>
-      <c r="AG12" s="159"/>
-      <c r="AH12" s="159"/>
-      <c r="AI12" s="160"/>
-    </row>
-    <row r="13" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="B12" s="155"/>
+      <c r="C12" s="156"/>
+      <c r="D12" s="157"/>
+      <c r="E12" s="158"/>
+      <c r="F12" s="159"/>
+      <c r="G12" s="155"/>
+      <c r="H12" s="160"/>
+      <c r="I12" s="156"/>
+      <c r="J12" s="152"/>
+      <c r="K12" s="153"/>
+      <c r="L12" s="153"/>
+      <c r="M12" s="153"/>
+      <c r="N12" s="153"/>
+      <c r="O12" s="153"/>
+      <c r="P12" s="154"/>
+      <c r="Q12" s="149"/>
+      <c r="R12" s="150"/>
+      <c r="S12" s="150"/>
+      <c r="T12" s="150"/>
+      <c r="U12" s="150"/>
+      <c r="V12" s="150"/>
+      <c r="W12" s="150"/>
+      <c r="X12" s="150"/>
+      <c r="Y12" s="150"/>
+      <c r="Z12" s="150"/>
+      <c r="AA12" s="150"/>
+      <c r="AB12" s="150"/>
+      <c r="AC12" s="150"/>
+      <c r="AD12" s="150"/>
+      <c r="AE12" s="151"/>
+      <c r="AF12" s="152"/>
+      <c r="AG12" s="153"/>
+      <c r="AH12" s="153"/>
+      <c r="AI12" s="154"/>
+    </row>
+    <row r="13" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="57"/>
-      <c r="B13" s="146"/>
-      <c r="C13" s="148"/>
-      <c r="D13" s="173"/>
-      <c r="E13" s="174"/>
-      <c r="F13" s="175"/>
-      <c r="G13" s="146"/>
-      <c r="H13" s="147"/>
-      <c r="I13" s="148"/>
-      <c r="J13" s="158"/>
-      <c r="K13" s="159"/>
-      <c r="L13" s="159"/>
-      <c r="M13" s="159"/>
-      <c r="N13" s="159"/>
-      <c r="O13" s="159"/>
-      <c r="P13" s="160"/>
-      <c r="Q13" s="155"/>
-      <c r="R13" s="156"/>
-      <c r="S13" s="156"/>
-      <c r="T13" s="156"/>
-      <c r="U13" s="156"/>
-      <c r="V13" s="156"/>
-      <c r="W13" s="156"/>
-      <c r="X13" s="156"/>
-      <c r="Y13" s="156"/>
-      <c r="Z13" s="156"/>
-      <c r="AA13" s="156"/>
-      <c r="AB13" s="156"/>
-      <c r="AC13" s="156"/>
-      <c r="AD13" s="156"/>
-      <c r="AE13" s="157"/>
-      <c r="AF13" s="158"/>
-      <c r="AG13" s="159"/>
-      <c r="AH13" s="159"/>
-      <c r="AI13" s="160"/>
-    </row>
-    <row r="14" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="B13" s="155"/>
+      <c r="C13" s="156"/>
+      <c r="D13" s="157"/>
+      <c r="E13" s="158"/>
+      <c r="F13" s="159"/>
+      <c r="G13" s="155"/>
+      <c r="H13" s="160"/>
+      <c r="I13" s="156"/>
+      <c r="J13" s="152"/>
+      <c r="K13" s="153"/>
+      <c r="L13" s="153"/>
+      <c r="M13" s="153"/>
+      <c r="N13" s="153"/>
+      <c r="O13" s="153"/>
+      <c r="P13" s="154"/>
+      <c r="Q13" s="149"/>
+      <c r="R13" s="150"/>
+      <c r="S13" s="150"/>
+      <c r="T13" s="150"/>
+      <c r="U13" s="150"/>
+      <c r="V13" s="150"/>
+      <c r="W13" s="150"/>
+      <c r="X13" s="150"/>
+      <c r="Y13" s="150"/>
+      <c r="Z13" s="150"/>
+      <c r="AA13" s="150"/>
+      <c r="AB13" s="150"/>
+      <c r="AC13" s="150"/>
+      <c r="AD13" s="150"/>
+      <c r="AE13" s="151"/>
+      <c r="AF13" s="152"/>
+      <c r="AG13" s="153"/>
+      <c r="AH13" s="153"/>
+      <c r="AI13" s="154"/>
+    </row>
+    <row r="14" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="57"/>
-      <c r="B14" s="146"/>
-      <c r="C14" s="148"/>
-      <c r="D14" s="173"/>
-      <c r="E14" s="174"/>
-      <c r="F14" s="175"/>
-      <c r="G14" s="146"/>
-      <c r="H14" s="147"/>
-      <c r="I14" s="148"/>
-      <c r="J14" s="158"/>
-      <c r="K14" s="159"/>
-      <c r="L14" s="159"/>
-      <c r="M14" s="159"/>
-      <c r="N14" s="159"/>
-      <c r="O14" s="159"/>
-      <c r="P14" s="160"/>
-      <c r="Q14" s="155"/>
-      <c r="R14" s="156"/>
-      <c r="S14" s="156"/>
-      <c r="T14" s="156"/>
-      <c r="U14" s="156"/>
-      <c r="V14" s="156"/>
-      <c r="W14" s="156"/>
-      <c r="X14" s="156"/>
-      <c r="Y14" s="156"/>
-      <c r="Z14" s="156"/>
-      <c r="AA14" s="156"/>
-      <c r="AB14" s="156"/>
-      <c r="AC14" s="156"/>
-      <c r="AD14" s="156"/>
-      <c r="AE14" s="157"/>
-      <c r="AF14" s="158"/>
-      <c r="AG14" s="159"/>
-      <c r="AH14" s="159"/>
-      <c r="AI14" s="160"/>
-    </row>
-    <row r="15" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="B14" s="155"/>
+      <c r="C14" s="156"/>
+      <c r="D14" s="157"/>
+      <c r="E14" s="158"/>
+      <c r="F14" s="159"/>
+      <c r="G14" s="155"/>
+      <c r="H14" s="160"/>
+      <c r="I14" s="156"/>
+      <c r="J14" s="152"/>
+      <c r="K14" s="153"/>
+      <c r="L14" s="153"/>
+      <c r="M14" s="153"/>
+      <c r="N14" s="153"/>
+      <c r="O14" s="153"/>
+      <c r="P14" s="154"/>
+      <c r="Q14" s="149"/>
+      <c r="R14" s="150"/>
+      <c r="S14" s="150"/>
+      <c r="T14" s="150"/>
+      <c r="U14" s="150"/>
+      <c r="V14" s="150"/>
+      <c r="W14" s="150"/>
+      <c r="X14" s="150"/>
+      <c r="Y14" s="150"/>
+      <c r="Z14" s="150"/>
+      <c r="AA14" s="150"/>
+      <c r="AB14" s="150"/>
+      <c r="AC14" s="150"/>
+      <c r="AD14" s="150"/>
+      <c r="AE14" s="151"/>
+      <c r="AF14" s="152"/>
+      <c r="AG14" s="153"/>
+      <c r="AH14" s="153"/>
+      <c r="AI14" s="154"/>
+    </row>
+    <row r="15" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="57"/>
-      <c r="B15" s="146"/>
-      <c r="C15" s="148"/>
-      <c r="D15" s="173"/>
-      <c r="E15" s="174"/>
-      <c r="F15" s="175"/>
-      <c r="G15" s="146"/>
-      <c r="H15" s="147"/>
-      <c r="I15" s="148"/>
-      <c r="J15" s="158"/>
-      <c r="K15" s="159"/>
-      <c r="L15" s="159"/>
-      <c r="M15" s="159"/>
-      <c r="N15" s="159"/>
-      <c r="O15" s="159"/>
-      <c r="P15" s="160"/>
-      <c r="Q15" s="155"/>
-      <c r="R15" s="156"/>
-      <c r="S15" s="156"/>
-      <c r="T15" s="156"/>
-      <c r="U15" s="156"/>
-      <c r="V15" s="156"/>
-      <c r="W15" s="156"/>
-      <c r="X15" s="156"/>
-      <c r="Y15" s="156"/>
-      <c r="Z15" s="156"/>
-      <c r="AA15" s="156"/>
-      <c r="AB15" s="156"/>
-      <c r="AC15" s="156"/>
-      <c r="AD15" s="156"/>
-      <c r="AE15" s="157"/>
-      <c r="AF15" s="158"/>
-      <c r="AG15" s="159"/>
-      <c r="AH15" s="159"/>
-      <c r="AI15" s="160"/>
-    </row>
-    <row r="16" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="B15" s="155"/>
+      <c r="C15" s="156"/>
+      <c r="D15" s="157"/>
+      <c r="E15" s="158"/>
+      <c r="F15" s="159"/>
+      <c r="G15" s="155"/>
+      <c r="H15" s="160"/>
+      <c r="I15" s="156"/>
+      <c r="J15" s="152"/>
+      <c r="K15" s="153"/>
+      <c r="L15" s="153"/>
+      <c r="M15" s="153"/>
+      <c r="N15" s="153"/>
+      <c r="O15" s="153"/>
+      <c r="P15" s="154"/>
+      <c r="Q15" s="149"/>
+      <c r="R15" s="150"/>
+      <c r="S15" s="150"/>
+      <c r="T15" s="150"/>
+      <c r="U15" s="150"/>
+      <c r="V15" s="150"/>
+      <c r="W15" s="150"/>
+      <c r="X15" s="150"/>
+      <c r="Y15" s="150"/>
+      <c r="Z15" s="150"/>
+      <c r="AA15" s="150"/>
+      <c r="AB15" s="150"/>
+      <c r="AC15" s="150"/>
+      <c r="AD15" s="150"/>
+      <c r="AE15" s="151"/>
+      <c r="AF15" s="152"/>
+      <c r="AG15" s="153"/>
+      <c r="AH15" s="153"/>
+      <c r="AI15" s="154"/>
+    </row>
+    <row r="16" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="57"/>
-      <c r="B16" s="146"/>
-      <c r="C16" s="148"/>
-      <c r="D16" s="173"/>
-      <c r="E16" s="174"/>
-      <c r="F16" s="175"/>
-      <c r="G16" s="146"/>
-      <c r="H16" s="147"/>
-      <c r="I16" s="148"/>
-      <c r="J16" s="158"/>
-      <c r="K16" s="159"/>
-      <c r="L16" s="159"/>
-      <c r="M16" s="159"/>
-      <c r="N16" s="159"/>
-      <c r="O16" s="159"/>
-      <c r="P16" s="160"/>
-      <c r="Q16" s="155"/>
-      <c r="R16" s="156"/>
-      <c r="S16" s="156"/>
-      <c r="T16" s="156"/>
-      <c r="U16" s="156"/>
-      <c r="V16" s="156"/>
-      <c r="W16" s="156"/>
-      <c r="X16" s="156"/>
-      <c r="Y16" s="156"/>
-      <c r="Z16" s="156"/>
-      <c r="AA16" s="156"/>
-      <c r="AB16" s="156"/>
-      <c r="AC16" s="156"/>
-      <c r="AD16" s="156"/>
-      <c r="AE16" s="157"/>
-      <c r="AF16" s="158"/>
-      <c r="AG16" s="159"/>
-      <c r="AH16" s="159"/>
-      <c r="AI16" s="160"/>
-    </row>
-    <row r="17" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="B16" s="155"/>
+      <c r="C16" s="156"/>
+      <c r="D16" s="157"/>
+      <c r="E16" s="158"/>
+      <c r="F16" s="159"/>
+      <c r="G16" s="155"/>
+      <c r="H16" s="160"/>
+      <c r="I16" s="156"/>
+      <c r="J16" s="152"/>
+      <c r="K16" s="153"/>
+      <c r="L16" s="153"/>
+      <c r="M16" s="153"/>
+      <c r="N16" s="153"/>
+      <c r="O16" s="153"/>
+      <c r="P16" s="154"/>
+      <c r="Q16" s="149"/>
+      <c r="R16" s="150"/>
+      <c r="S16" s="150"/>
+      <c r="T16" s="150"/>
+      <c r="U16" s="150"/>
+      <c r="V16" s="150"/>
+      <c r="W16" s="150"/>
+      <c r="X16" s="150"/>
+      <c r="Y16" s="150"/>
+      <c r="Z16" s="150"/>
+      <c r="AA16" s="150"/>
+      <c r="AB16" s="150"/>
+      <c r="AC16" s="150"/>
+      <c r="AD16" s="150"/>
+      <c r="AE16" s="151"/>
+      <c r="AF16" s="152"/>
+      <c r="AG16" s="153"/>
+      <c r="AH16" s="153"/>
+      <c r="AI16" s="154"/>
+    </row>
+    <row r="17" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="57"/>
-      <c r="B17" s="146"/>
-      <c r="C17" s="148"/>
-      <c r="D17" s="173"/>
-      <c r="E17" s="174"/>
-      <c r="F17" s="175"/>
-      <c r="G17" s="146"/>
-      <c r="H17" s="147"/>
-      <c r="I17" s="148"/>
-      <c r="J17" s="158"/>
-      <c r="K17" s="159"/>
-      <c r="L17" s="159"/>
-      <c r="M17" s="159"/>
-      <c r="N17" s="159"/>
-      <c r="O17" s="159"/>
-      <c r="P17" s="160"/>
-      <c r="Q17" s="155"/>
-      <c r="R17" s="156"/>
-      <c r="S17" s="156"/>
-      <c r="T17" s="156"/>
-      <c r="U17" s="156"/>
-      <c r="V17" s="156"/>
-      <c r="W17" s="156"/>
-      <c r="X17" s="156"/>
-      <c r="Y17" s="156"/>
-      <c r="Z17" s="156"/>
-      <c r="AA17" s="156"/>
-      <c r="AB17" s="156"/>
-      <c r="AC17" s="156"/>
-      <c r="AD17" s="156"/>
-      <c r="AE17" s="157"/>
-      <c r="AF17" s="158"/>
-      <c r="AG17" s="159"/>
-      <c r="AH17" s="159"/>
-      <c r="AI17" s="160"/>
-    </row>
-    <row r="18" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="B17" s="155"/>
+      <c r="C17" s="156"/>
+      <c r="D17" s="157"/>
+      <c r="E17" s="158"/>
+      <c r="F17" s="159"/>
+      <c r="G17" s="155"/>
+      <c r="H17" s="160"/>
+      <c r="I17" s="156"/>
+      <c r="J17" s="152"/>
+      <c r="K17" s="153"/>
+      <c r="L17" s="153"/>
+      <c r="M17" s="153"/>
+      <c r="N17" s="153"/>
+      <c r="O17" s="153"/>
+      <c r="P17" s="154"/>
+      <c r="Q17" s="149"/>
+      <c r="R17" s="150"/>
+      <c r="S17" s="150"/>
+      <c r="T17" s="150"/>
+      <c r="U17" s="150"/>
+      <c r="V17" s="150"/>
+      <c r="W17" s="150"/>
+      <c r="X17" s="150"/>
+      <c r="Y17" s="150"/>
+      <c r="Z17" s="150"/>
+      <c r="AA17" s="150"/>
+      <c r="AB17" s="150"/>
+      <c r="AC17" s="150"/>
+      <c r="AD17" s="150"/>
+      <c r="AE17" s="151"/>
+      <c r="AF17" s="152"/>
+      <c r="AG17" s="153"/>
+      <c r="AH17" s="153"/>
+      <c r="AI17" s="154"/>
+    </row>
+    <row r="18" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="57"/>
-      <c r="B18" s="146"/>
-      <c r="C18" s="148"/>
-      <c r="D18" s="173"/>
-      <c r="E18" s="174"/>
-      <c r="F18" s="175"/>
-      <c r="G18" s="146"/>
-      <c r="H18" s="147"/>
-      <c r="I18" s="148"/>
-      <c r="J18" s="158"/>
-      <c r="K18" s="159"/>
-      <c r="L18" s="159"/>
-      <c r="M18" s="159"/>
-      <c r="N18" s="159"/>
-      <c r="O18" s="159"/>
-      <c r="P18" s="160"/>
-      <c r="Q18" s="155"/>
-      <c r="R18" s="156"/>
-      <c r="S18" s="156"/>
-      <c r="T18" s="156"/>
-      <c r="U18" s="156"/>
-      <c r="V18" s="156"/>
-      <c r="W18" s="156"/>
-      <c r="X18" s="156"/>
-      <c r="Y18" s="156"/>
-      <c r="Z18" s="156"/>
-      <c r="AA18" s="156"/>
-      <c r="AB18" s="156"/>
-      <c r="AC18" s="156"/>
-      <c r="AD18" s="156"/>
-      <c r="AE18" s="157"/>
-      <c r="AF18" s="158"/>
-      <c r="AG18" s="159"/>
-      <c r="AH18" s="159"/>
-      <c r="AI18" s="160"/>
-    </row>
-    <row r="19" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="B18" s="155"/>
+      <c r="C18" s="156"/>
+      <c r="D18" s="157"/>
+      <c r="E18" s="158"/>
+      <c r="F18" s="159"/>
+      <c r="G18" s="155"/>
+      <c r="H18" s="160"/>
+      <c r="I18" s="156"/>
+      <c r="J18" s="152"/>
+      <c r="K18" s="153"/>
+      <c r="L18" s="153"/>
+      <c r="M18" s="153"/>
+      <c r="N18" s="153"/>
+      <c r="O18" s="153"/>
+      <c r="P18" s="154"/>
+      <c r="Q18" s="149"/>
+      <c r="R18" s="150"/>
+      <c r="S18" s="150"/>
+      <c r="T18" s="150"/>
+      <c r="U18" s="150"/>
+      <c r="V18" s="150"/>
+      <c r="W18" s="150"/>
+      <c r="X18" s="150"/>
+      <c r="Y18" s="150"/>
+      <c r="Z18" s="150"/>
+      <c r="AA18" s="150"/>
+      <c r="AB18" s="150"/>
+      <c r="AC18" s="150"/>
+      <c r="AD18" s="150"/>
+      <c r="AE18" s="151"/>
+      <c r="AF18" s="152"/>
+      <c r="AG18" s="153"/>
+      <c r="AH18" s="153"/>
+      <c r="AI18" s="154"/>
+    </row>
+    <row r="19" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="57"/>
-      <c r="B19" s="146"/>
-      <c r="C19" s="148"/>
-      <c r="D19" s="173"/>
-      <c r="E19" s="174"/>
-      <c r="F19" s="175"/>
-      <c r="G19" s="146"/>
-      <c r="H19" s="147"/>
-      <c r="I19" s="148"/>
-      <c r="J19" s="158"/>
-      <c r="K19" s="159"/>
-      <c r="L19" s="159"/>
-      <c r="M19" s="159"/>
-      <c r="N19" s="159"/>
-      <c r="O19" s="159"/>
-      <c r="P19" s="160"/>
-      <c r="Q19" s="155"/>
-      <c r="R19" s="156"/>
-      <c r="S19" s="156"/>
-      <c r="T19" s="156"/>
-      <c r="U19" s="156"/>
-      <c r="V19" s="156"/>
-      <c r="W19" s="156"/>
-      <c r="X19" s="156"/>
-      <c r="Y19" s="156"/>
-      <c r="Z19" s="156"/>
-      <c r="AA19" s="156"/>
-      <c r="AB19" s="156"/>
-      <c r="AC19" s="156"/>
-      <c r="AD19" s="156"/>
-      <c r="AE19" s="157"/>
-      <c r="AF19" s="158"/>
-      <c r="AG19" s="159"/>
-      <c r="AH19" s="159"/>
-      <c r="AI19" s="160"/>
-    </row>
-    <row r="20" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="B19" s="155"/>
+      <c r="C19" s="156"/>
+      <c r="D19" s="157"/>
+      <c r="E19" s="158"/>
+      <c r="F19" s="159"/>
+      <c r="G19" s="155"/>
+      <c r="H19" s="160"/>
+      <c r="I19" s="156"/>
+      <c r="J19" s="152"/>
+      <c r="K19" s="153"/>
+      <c r="L19" s="153"/>
+      <c r="M19" s="153"/>
+      <c r="N19" s="153"/>
+      <c r="O19" s="153"/>
+      <c r="P19" s="154"/>
+      <c r="Q19" s="149"/>
+      <c r="R19" s="150"/>
+      <c r="S19" s="150"/>
+      <c r="T19" s="150"/>
+      <c r="U19" s="150"/>
+      <c r="V19" s="150"/>
+      <c r="W19" s="150"/>
+      <c r="X19" s="150"/>
+      <c r="Y19" s="150"/>
+      <c r="Z19" s="150"/>
+      <c r="AA19" s="150"/>
+      <c r="AB19" s="150"/>
+      <c r="AC19" s="150"/>
+      <c r="AD19" s="150"/>
+      <c r="AE19" s="151"/>
+      <c r="AF19" s="152"/>
+      <c r="AG19" s="153"/>
+      <c r="AH19" s="153"/>
+      <c r="AI19" s="154"/>
+    </row>
+    <row r="20" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="57"/>
-      <c r="B20" s="146"/>
-      <c r="C20" s="148"/>
-      <c r="D20" s="173"/>
-      <c r="E20" s="174"/>
-      <c r="F20" s="175"/>
-      <c r="G20" s="146"/>
-      <c r="H20" s="147"/>
-      <c r="I20" s="148"/>
-      <c r="J20" s="158"/>
-      <c r="K20" s="159"/>
-      <c r="L20" s="159"/>
-      <c r="M20" s="159"/>
-      <c r="N20" s="159"/>
-      <c r="O20" s="159"/>
-      <c r="P20" s="160"/>
-      <c r="Q20" s="155"/>
-      <c r="R20" s="156"/>
-      <c r="S20" s="156"/>
-      <c r="T20" s="156"/>
-      <c r="U20" s="156"/>
-      <c r="V20" s="156"/>
-      <c r="W20" s="156"/>
-      <c r="X20" s="156"/>
-      <c r="Y20" s="156"/>
-      <c r="Z20" s="156"/>
-      <c r="AA20" s="156"/>
-      <c r="AB20" s="156"/>
-      <c r="AC20" s="156"/>
-      <c r="AD20" s="156"/>
-      <c r="AE20" s="157"/>
-      <c r="AF20" s="158"/>
-      <c r="AG20" s="159"/>
-      <c r="AH20" s="159"/>
-      <c r="AI20" s="160"/>
-    </row>
-    <row r="21" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="B20" s="155"/>
+      <c r="C20" s="156"/>
+      <c r="D20" s="157"/>
+      <c r="E20" s="158"/>
+      <c r="F20" s="159"/>
+      <c r="G20" s="155"/>
+      <c r="H20" s="160"/>
+      <c r="I20" s="156"/>
+      <c r="J20" s="152"/>
+      <c r="K20" s="153"/>
+      <c r="L20" s="153"/>
+      <c r="M20" s="153"/>
+      <c r="N20" s="153"/>
+      <c r="O20" s="153"/>
+      <c r="P20" s="154"/>
+      <c r="Q20" s="149"/>
+      <c r="R20" s="150"/>
+      <c r="S20" s="150"/>
+      <c r="T20" s="150"/>
+      <c r="U20" s="150"/>
+      <c r="V20" s="150"/>
+      <c r="W20" s="150"/>
+      <c r="X20" s="150"/>
+      <c r="Y20" s="150"/>
+      <c r="Z20" s="150"/>
+      <c r="AA20" s="150"/>
+      <c r="AB20" s="150"/>
+      <c r="AC20" s="150"/>
+      <c r="AD20" s="150"/>
+      <c r="AE20" s="151"/>
+      <c r="AF20" s="152"/>
+      <c r="AG20" s="153"/>
+      <c r="AH20" s="153"/>
+      <c r="AI20" s="154"/>
+    </row>
+    <row r="21" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="57"/>
-      <c r="B21" s="146"/>
-      <c r="C21" s="148"/>
-      <c r="D21" s="173"/>
-      <c r="E21" s="174"/>
-      <c r="F21" s="175"/>
-      <c r="G21" s="146"/>
-      <c r="H21" s="147"/>
-      <c r="I21" s="148"/>
-      <c r="J21" s="158"/>
-      <c r="K21" s="159"/>
-      <c r="L21" s="159"/>
-      <c r="M21" s="159"/>
-      <c r="N21" s="159"/>
-      <c r="O21" s="159"/>
-      <c r="P21" s="160"/>
-      <c r="Q21" s="155"/>
-      <c r="R21" s="156"/>
-      <c r="S21" s="156"/>
-      <c r="T21" s="156"/>
-      <c r="U21" s="156"/>
-      <c r="V21" s="156"/>
-      <c r="W21" s="156"/>
-      <c r="X21" s="156"/>
-      <c r="Y21" s="156"/>
-      <c r="Z21" s="156"/>
-      <c r="AA21" s="156"/>
-      <c r="AB21" s="156"/>
-      <c r="AC21" s="156"/>
-      <c r="AD21" s="156"/>
-      <c r="AE21" s="157"/>
-      <c r="AF21" s="158"/>
-      <c r="AG21" s="159"/>
-      <c r="AH21" s="159"/>
-      <c r="AI21" s="160"/>
-    </row>
-    <row r="22" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="B21" s="155"/>
+      <c r="C21" s="156"/>
+      <c r="D21" s="157"/>
+      <c r="E21" s="158"/>
+      <c r="F21" s="159"/>
+      <c r="G21" s="155"/>
+      <c r="H21" s="160"/>
+      <c r="I21" s="156"/>
+      <c r="J21" s="152"/>
+      <c r="K21" s="153"/>
+      <c r="L21" s="153"/>
+      <c r="M21" s="153"/>
+      <c r="N21" s="153"/>
+      <c r="O21" s="153"/>
+      <c r="P21" s="154"/>
+      <c r="Q21" s="149"/>
+      <c r="R21" s="150"/>
+      <c r="S21" s="150"/>
+      <c r="T21" s="150"/>
+      <c r="U21" s="150"/>
+      <c r="V21" s="150"/>
+      <c r="W21" s="150"/>
+      <c r="X21" s="150"/>
+      <c r="Y21" s="150"/>
+      <c r="Z21" s="150"/>
+      <c r="AA21" s="150"/>
+      <c r="AB21" s="150"/>
+      <c r="AC21" s="150"/>
+      <c r="AD21" s="150"/>
+      <c r="AE21" s="151"/>
+      <c r="AF21" s="152"/>
+      <c r="AG21" s="153"/>
+      <c r="AH21" s="153"/>
+      <c r="AI21" s="154"/>
+    </row>
+    <row r="22" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="57"/>
-      <c r="B22" s="146"/>
-      <c r="C22" s="148"/>
-      <c r="D22" s="173"/>
-      <c r="E22" s="174"/>
-      <c r="F22" s="175"/>
-      <c r="G22" s="146"/>
-      <c r="H22" s="147"/>
-      <c r="I22" s="148"/>
-      <c r="J22" s="158"/>
-      <c r="K22" s="159"/>
-      <c r="L22" s="159"/>
-      <c r="M22" s="159"/>
-      <c r="N22" s="159"/>
-      <c r="O22" s="159"/>
-      <c r="P22" s="160"/>
-      <c r="Q22" s="155"/>
-      <c r="R22" s="156"/>
-      <c r="S22" s="156"/>
-      <c r="T22" s="156"/>
-      <c r="U22" s="156"/>
-      <c r="V22" s="156"/>
-      <c r="W22" s="156"/>
-      <c r="X22" s="156"/>
-      <c r="Y22" s="156"/>
-      <c r="Z22" s="156"/>
-      <c r="AA22" s="156"/>
-      <c r="AB22" s="156"/>
-      <c r="AC22" s="156"/>
-      <c r="AD22" s="156"/>
-      <c r="AE22" s="157"/>
-      <c r="AF22" s="158"/>
-      <c r="AG22" s="159"/>
-      <c r="AH22" s="159"/>
-      <c r="AI22" s="160"/>
-    </row>
-    <row r="23" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="B22" s="155"/>
+      <c r="C22" s="156"/>
+      <c r="D22" s="157"/>
+      <c r="E22" s="158"/>
+      <c r="F22" s="159"/>
+      <c r="G22" s="155"/>
+      <c r="H22" s="160"/>
+      <c r="I22" s="156"/>
+      <c r="J22" s="152"/>
+      <c r="K22" s="153"/>
+      <c r="L22" s="153"/>
+      <c r="M22" s="153"/>
+      <c r="N22" s="153"/>
+      <c r="O22" s="153"/>
+      <c r="P22" s="154"/>
+      <c r="Q22" s="149"/>
+      <c r="R22" s="150"/>
+      <c r="S22" s="150"/>
+      <c r="T22" s="150"/>
+      <c r="U22" s="150"/>
+      <c r="V22" s="150"/>
+      <c r="W22" s="150"/>
+      <c r="X22" s="150"/>
+      <c r="Y22" s="150"/>
+      <c r="Z22" s="150"/>
+      <c r="AA22" s="150"/>
+      <c r="AB22" s="150"/>
+      <c r="AC22" s="150"/>
+      <c r="AD22" s="150"/>
+      <c r="AE22" s="151"/>
+      <c r="AF22" s="152"/>
+      <c r="AG22" s="153"/>
+      <c r="AH22" s="153"/>
+      <c r="AI22" s="154"/>
+    </row>
+    <row r="23" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="57"/>
-      <c r="B23" s="146"/>
-      <c r="C23" s="148"/>
-      <c r="D23" s="173"/>
-      <c r="E23" s="174"/>
-      <c r="F23" s="175"/>
-      <c r="G23" s="146"/>
-      <c r="H23" s="147"/>
-      <c r="I23" s="148"/>
-      <c r="J23" s="158"/>
-      <c r="K23" s="159"/>
-      <c r="L23" s="159"/>
-      <c r="M23" s="159"/>
-      <c r="N23" s="159"/>
-      <c r="O23" s="159"/>
-      <c r="P23" s="160"/>
-      <c r="Q23" s="155"/>
-      <c r="R23" s="156"/>
-      <c r="S23" s="156"/>
-      <c r="T23" s="156"/>
-      <c r="U23" s="156"/>
-      <c r="V23" s="156"/>
-      <c r="W23" s="156"/>
-      <c r="X23" s="156"/>
-      <c r="Y23" s="156"/>
-      <c r="Z23" s="156"/>
-      <c r="AA23" s="156"/>
-      <c r="AB23" s="156"/>
-      <c r="AC23" s="156"/>
-      <c r="AD23" s="156"/>
-      <c r="AE23" s="157"/>
-      <c r="AF23" s="158"/>
-      <c r="AG23" s="159"/>
-      <c r="AH23" s="159"/>
-      <c r="AI23" s="160"/>
-    </row>
-    <row r="24" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="B23" s="155"/>
+      <c r="C23" s="156"/>
+      <c r="D23" s="157"/>
+      <c r="E23" s="158"/>
+      <c r="F23" s="159"/>
+      <c r="G23" s="155"/>
+      <c r="H23" s="160"/>
+      <c r="I23" s="156"/>
+      <c r="J23" s="152"/>
+      <c r="K23" s="153"/>
+      <c r="L23" s="153"/>
+      <c r="M23" s="153"/>
+      <c r="N23" s="153"/>
+      <c r="O23" s="153"/>
+      <c r="P23" s="154"/>
+      <c r="Q23" s="149"/>
+      <c r="R23" s="150"/>
+      <c r="S23" s="150"/>
+      <c r="T23" s="150"/>
+      <c r="U23" s="150"/>
+      <c r="V23" s="150"/>
+      <c r="W23" s="150"/>
+      <c r="X23" s="150"/>
+      <c r="Y23" s="150"/>
+      <c r="Z23" s="150"/>
+      <c r="AA23" s="150"/>
+      <c r="AB23" s="150"/>
+      <c r="AC23" s="150"/>
+      <c r="AD23" s="150"/>
+      <c r="AE23" s="151"/>
+      <c r="AF23" s="152"/>
+      <c r="AG23" s="153"/>
+      <c r="AH23" s="153"/>
+      <c r="AI23" s="154"/>
+    </row>
+    <row r="24" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="57"/>
-      <c r="B24" s="146"/>
-      <c r="C24" s="148"/>
-      <c r="D24" s="173"/>
-      <c r="E24" s="174"/>
-      <c r="F24" s="175"/>
-      <c r="G24" s="146"/>
-      <c r="H24" s="147"/>
-      <c r="I24" s="148"/>
-      <c r="J24" s="158"/>
-      <c r="K24" s="159"/>
-      <c r="L24" s="159"/>
-      <c r="M24" s="159"/>
-      <c r="N24" s="159"/>
-      <c r="O24" s="159"/>
-      <c r="P24" s="160"/>
-      <c r="Q24" s="155"/>
-      <c r="R24" s="156"/>
-      <c r="S24" s="156"/>
-      <c r="T24" s="156"/>
-      <c r="U24" s="156"/>
-      <c r="V24" s="156"/>
-      <c r="W24" s="156"/>
-      <c r="X24" s="156"/>
-      <c r="Y24" s="156"/>
-      <c r="Z24" s="156"/>
-      <c r="AA24" s="156"/>
-      <c r="AB24" s="156"/>
-      <c r="AC24" s="156"/>
-      <c r="AD24" s="156"/>
-      <c r="AE24" s="157"/>
-      <c r="AF24" s="158"/>
-      <c r="AG24" s="159"/>
-      <c r="AH24" s="159"/>
-      <c r="AI24" s="160"/>
-    </row>
-    <row r="25" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="B24" s="155"/>
+      <c r="C24" s="156"/>
+      <c r="D24" s="157"/>
+      <c r="E24" s="158"/>
+      <c r="F24" s="159"/>
+      <c r="G24" s="155"/>
+      <c r="H24" s="160"/>
+      <c r="I24" s="156"/>
+      <c r="J24" s="152"/>
+      <c r="K24" s="153"/>
+      <c r="L24" s="153"/>
+      <c r="M24" s="153"/>
+      <c r="N24" s="153"/>
+      <c r="O24" s="153"/>
+      <c r="P24" s="154"/>
+      <c r="Q24" s="149"/>
+      <c r="R24" s="150"/>
+      <c r="S24" s="150"/>
+      <c r="T24" s="150"/>
+      <c r="U24" s="150"/>
+      <c r="V24" s="150"/>
+      <c r="W24" s="150"/>
+      <c r="X24" s="150"/>
+      <c r="Y24" s="150"/>
+      <c r="Z24" s="150"/>
+      <c r="AA24" s="150"/>
+      <c r="AB24" s="150"/>
+      <c r="AC24" s="150"/>
+      <c r="AD24" s="150"/>
+      <c r="AE24" s="151"/>
+      <c r="AF24" s="152"/>
+      <c r="AG24" s="153"/>
+      <c r="AH24" s="153"/>
+      <c r="AI24" s="154"/>
+    </row>
+    <row r="25" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="57"/>
-      <c r="B25" s="146"/>
-      <c r="C25" s="148"/>
-      <c r="D25" s="173"/>
-      <c r="E25" s="174"/>
-      <c r="F25" s="175"/>
-      <c r="G25" s="146"/>
-      <c r="H25" s="147"/>
-      <c r="I25" s="148"/>
-      <c r="J25" s="158"/>
-      <c r="K25" s="159"/>
-      <c r="L25" s="159"/>
-      <c r="M25" s="159"/>
-      <c r="N25" s="159"/>
-      <c r="O25" s="159"/>
-      <c r="P25" s="160"/>
-      <c r="Q25" s="155"/>
-      <c r="R25" s="156"/>
-      <c r="S25" s="156"/>
-      <c r="T25" s="156"/>
-      <c r="U25" s="156"/>
-      <c r="V25" s="156"/>
-      <c r="W25" s="156"/>
-      <c r="X25" s="156"/>
-      <c r="Y25" s="156"/>
-      <c r="Z25" s="156"/>
-      <c r="AA25" s="156"/>
-      <c r="AB25" s="156"/>
-      <c r="AC25" s="156"/>
-      <c r="AD25" s="156"/>
-      <c r="AE25" s="157"/>
-      <c r="AF25" s="158"/>
-      <c r="AG25" s="159"/>
-      <c r="AH25" s="159"/>
-      <c r="AI25" s="160"/>
-    </row>
-    <row r="26" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="B25" s="155"/>
+      <c r="C25" s="156"/>
+      <c r="D25" s="157"/>
+      <c r="E25" s="158"/>
+      <c r="F25" s="159"/>
+      <c r="G25" s="155"/>
+      <c r="H25" s="160"/>
+      <c r="I25" s="156"/>
+      <c r="J25" s="152"/>
+      <c r="K25" s="153"/>
+      <c r="L25" s="153"/>
+      <c r="M25" s="153"/>
+      <c r="N25" s="153"/>
+      <c r="O25" s="153"/>
+      <c r="P25" s="154"/>
+      <c r="Q25" s="149"/>
+      <c r="R25" s="150"/>
+      <c r="S25" s="150"/>
+      <c r="T25" s="150"/>
+      <c r="U25" s="150"/>
+      <c r="V25" s="150"/>
+      <c r="W25" s="150"/>
+      <c r="X25" s="150"/>
+      <c r="Y25" s="150"/>
+      <c r="Z25" s="150"/>
+      <c r="AA25" s="150"/>
+      <c r="AB25" s="150"/>
+      <c r="AC25" s="150"/>
+      <c r="AD25" s="150"/>
+      <c r="AE25" s="151"/>
+      <c r="AF25" s="152"/>
+      <c r="AG25" s="153"/>
+      <c r="AH25" s="153"/>
+      <c r="AI25" s="154"/>
+    </row>
+    <row r="26" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="57"/>
-      <c r="B26" s="146"/>
-      <c r="C26" s="148"/>
-      <c r="D26" s="173"/>
-      <c r="E26" s="174"/>
-      <c r="F26" s="175"/>
-      <c r="G26" s="146"/>
-      <c r="H26" s="147"/>
-      <c r="I26" s="148"/>
-      <c r="J26" s="158"/>
-      <c r="K26" s="159"/>
-      <c r="L26" s="159"/>
-      <c r="M26" s="159"/>
-      <c r="N26" s="159"/>
-      <c r="O26" s="159"/>
-      <c r="P26" s="160"/>
-      <c r="Q26" s="155"/>
-      <c r="R26" s="156"/>
-      <c r="S26" s="156"/>
-      <c r="T26" s="156"/>
-      <c r="U26" s="156"/>
-      <c r="V26" s="156"/>
-      <c r="W26" s="156"/>
-      <c r="X26" s="156"/>
-      <c r="Y26" s="156"/>
-      <c r="Z26" s="156"/>
-      <c r="AA26" s="156"/>
-      <c r="AB26" s="156"/>
-      <c r="AC26" s="156"/>
-      <c r="AD26" s="156"/>
-      <c r="AE26" s="157"/>
-      <c r="AF26" s="158"/>
-      <c r="AG26" s="159"/>
-      <c r="AH26" s="159"/>
-      <c r="AI26" s="160"/>
-    </row>
-    <row r="27" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="B26" s="155"/>
+      <c r="C26" s="156"/>
+      <c r="D26" s="157"/>
+      <c r="E26" s="158"/>
+      <c r="F26" s="159"/>
+      <c r="G26" s="155"/>
+      <c r="H26" s="160"/>
+      <c r="I26" s="156"/>
+      <c r="J26" s="152"/>
+      <c r="K26" s="153"/>
+      <c r="L26" s="153"/>
+      <c r="M26" s="153"/>
+      <c r="N26" s="153"/>
+      <c r="O26" s="153"/>
+      <c r="P26" s="154"/>
+      <c r="Q26" s="149"/>
+      <c r="R26" s="150"/>
+      <c r="S26" s="150"/>
+      <c r="T26" s="150"/>
+      <c r="U26" s="150"/>
+      <c r="V26" s="150"/>
+      <c r="W26" s="150"/>
+      <c r="X26" s="150"/>
+      <c r="Y26" s="150"/>
+      <c r="Z26" s="150"/>
+      <c r="AA26" s="150"/>
+      <c r="AB26" s="150"/>
+      <c r="AC26" s="150"/>
+      <c r="AD26" s="150"/>
+      <c r="AE26" s="151"/>
+      <c r="AF26" s="152"/>
+      <c r="AG26" s="153"/>
+      <c r="AH26" s="153"/>
+      <c r="AI26" s="154"/>
+    </row>
+    <row r="27" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="57"/>
-      <c r="B27" s="146"/>
-      <c r="C27" s="148"/>
-      <c r="D27" s="173"/>
-      <c r="E27" s="174"/>
-      <c r="F27" s="175"/>
-      <c r="G27" s="146"/>
-      <c r="H27" s="147"/>
-      <c r="I27" s="148"/>
-      <c r="J27" s="158"/>
-      <c r="K27" s="159"/>
-      <c r="L27" s="159"/>
-      <c r="M27" s="159"/>
-      <c r="N27" s="159"/>
-      <c r="O27" s="159"/>
-      <c r="P27" s="160"/>
-      <c r="Q27" s="155"/>
-      <c r="R27" s="156"/>
-      <c r="S27" s="156"/>
-      <c r="T27" s="156"/>
-      <c r="U27" s="156"/>
-      <c r="V27" s="156"/>
-      <c r="W27" s="156"/>
-      <c r="X27" s="156"/>
-      <c r="Y27" s="156"/>
-      <c r="Z27" s="156"/>
-      <c r="AA27" s="156"/>
-      <c r="AB27" s="156"/>
-      <c r="AC27" s="156"/>
-      <c r="AD27" s="156"/>
-      <c r="AE27" s="157"/>
-      <c r="AF27" s="158"/>
-      <c r="AG27" s="159"/>
-      <c r="AH27" s="159"/>
-      <c r="AI27" s="160"/>
-    </row>
-    <row r="28" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="B27" s="155"/>
+      <c r="C27" s="156"/>
+      <c r="D27" s="157"/>
+      <c r="E27" s="158"/>
+      <c r="F27" s="159"/>
+      <c r="G27" s="155"/>
+      <c r="H27" s="160"/>
+      <c r="I27" s="156"/>
+      <c r="J27" s="152"/>
+      <c r="K27" s="153"/>
+      <c r="L27" s="153"/>
+      <c r="M27" s="153"/>
+      <c r="N27" s="153"/>
+      <c r="O27" s="153"/>
+      <c r="P27" s="154"/>
+      <c r="Q27" s="149"/>
+      <c r="R27" s="150"/>
+      <c r="S27" s="150"/>
+      <c r="T27" s="150"/>
+      <c r="U27" s="150"/>
+      <c r="V27" s="150"/>
+      <c r="W27" s="150"/>
+      <c r="X27" s="150"/>
+      <c r="Y27" s="150"/>
+      <c r="Z27" s="150"/>
+      <c r="AA27" s="150"/>
+      <c r="AB27" s="150"/>
+      <c r="AC27" s="150"/>
+      <c r="AD27" s="150"/>
+      <c r="AE27" s="151"/>
+      <c r="AF27" s="152"/>
+      <c r="AG27" s="153"/>
+      <c r="AH27" s="153"/>
+      <c r="AI27" s="154"/>
+    </row>
+    <row r="28" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="57"/>
-      <c r="B28" s="146"/>
-      <c r="C28" s="148"/>
-      <c r="D28" s="173"/>
-      <c r="E28" s="174"/>
-      <c r="F28" s="175"/>
-      <c r="G28" s="146"/>
-      <c r="H28" s="147"/>
-      <c r="I28" s="148"/>
-      <c r="J28" s="158"/>
-      <c r="K28" s="159"/>
-      <c r="L28" s="159"/>
-      <c r="M28" s="159"/>
-      <c r="N28" s="159"/>
-      <c r="O28" s="159"/>
-      <c r="P28" s="160"/>
-      <c r="Q28" s="155"/>
-      <c r="R28" s="156"/>
-      <c r="S28" s="156"/>
-      <c r="T28" s="156"/>
-      <c r="U28" s="156"/>
-      <c r="V28" s="156"/>
-      <c r="W28" s="156"/>
-      <c r="X28" s="156"/>
-      <c r="Y28" s="156"/>
-      <c r="Z28" s="156"/>
-      <c r="AA28" s="156"/>
-      <c r="AB28" s="156"/>
-      <c r="AC28" s="156"/>
-      <c r="AD28" s="156"/>
-      <c r="AE28" s="157"/>
-      <c r="AF28" s="158"/>
-      <c r="AG28" s="159"/>
-      <c r="AH28" s="159"/>
-      <c r="AI28" s="160"/>
-    </row>
-    <row r="29" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="B28" s="155"/>
+      <c r="C28" s="156"/>
+      <c r="D28" s="157"/>
+      <c r="E28" s="158"/>
+      <c r="F28" s="159"/>
+      <c r="G28" s="155"/>
+      <c r="H28" s="160"/>
+      <c r="I28" s="156"/>
+      <c r="J28" s="152"/>
+      <c r="K28" s="153"/>
+      <c r="L28" s="153"/>
+      <c r="M28" s="153"/>
+      <c r="N28" s="153"/>
+      <c r="O28" s="153"/>
+      <c r="P28" s="154"/>
+      <c r="Q28" s="149"/>
+      <c r="R28" s="150"/>
+      <c r="S28" s="150"/>
+      <c r="T28" s="150"/>
+      <c r="U28" s="150"/>
+      <c r="V28" s="150"/>
+      <c r="W28" s="150"/>
+      <c r="X28" s="150"/>
+      <c r="Y28" s="150"/>
+      <c r="Z28" s="150"/>
+      <c r="AA28" s="150"/>
+      <c r="AB28" s="150"/>
+      <c r="AC28" s="150"/>
+      <c r="AD28" s="150"/>
+      <c r="AE28" s="151"/>
+      <c r="AF28" s="152"/>
+      <c r="AG28" s="153"/>
+      <c r="AH28" s="153"/>
+      <c r="AI28" s="154"/>
+    </row>
+    <row r="29" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="57"/>
-      <c r="B29" s="146"/>
-      <c r="C29" s="148"/>
-      <c r="D29" s="173"/>
-      <c r="E29" s="174"/>
-      <c r="F29" s="175"/>
-      <c r="G29" s="146"/>
-      <c r="H29" s="147"/>
-      <c r="I29" s="148"/>
-      <c r="J29" s="158"/>
-      <c r="K29" s="159"/>
-      <c r="L29" s="159"/>
-      <c r="M29" s="159"/>
-      <c r="N29" s="159"/>
-      <c r="O29" s="159"/>
-      <c r="P29" s="160"/>
-      <c r="Q29" s="155"/>
-      <c r="R29" s="156"/>
-      <c r="S29" s="156"/>
-      <c r="T29" s="156"/>
-      <c r="U29" s="156"/>
-      <c r="V29" s="156"/>
-      <c r="W29" s="156"/>
-      <c r="X29" s="156"/>
-      <c r="Y29" s="156"/>
-      <c r="Z29" s="156"/>
-      <c r="AA29" s="156"/>
-      <c r="AB29" s="156"/>
-      <c r="AC29" s="156"/>
-      <c r="AD29" s="156"/>
-      <c r="AE29" s="157"/>
-      <c r="AF29" s="158"/>
-      <c r="AG29" s="159"/>
-      <c r="AH29" s="159"/>
-      <c r="AI29" s="160"/>
-    </row>
-    <row r="30" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="B29" s="155"/>
+      <c r="C29" s="156"/>
+      <c r="D29" s="157"/>
+      <c r="E29" s="158"/>
+      <c r="F29" s="159"/>
+      <c r="G29" s="155"/>
+      <c r="H29" s="160"/>
+      <c r="I29" s="156"/>
+      <c r="J29" s="152"/>
+      <c r="K29" s="153"/>
+      <c r="L29" s="153"/>
+      <c r="M29" s="153"/>
+      <c r="N29" s="153"/>
+      <c r="O29" s="153"/>
+      <c r="P29" s="154"/>
+      <c r="Q29" s="149"/>
+      <c r="R29" s="150"/>
+      <c r="S29" s="150"/>
+      <c r="T29" s="150"/>
+      <c r="U29" s="150"/>
+      <c r="V29" s="150"/>
+      <c r="W29" s="150"/>
+      <c r="X29" s="150"/>
+      <c r="Y29" s="150"/>
+      <c r="Z29" s="150"/>
+      <c r="AA29" s="150"/>
+      <c r="AB29" s="150"/>
+      <c r="AC29" s="150"/>
+      <c r="AD29" s="150"/>
+      <c r="AE29" s="151"/>
+      <c r="AF29" s="152"/>
+      <c r="AG29" s="153"/>
+      <c r="AH29" s="153"/>
+      <c r="AI29" s="154"/>
+    </row>
+    <row r="30" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="57"/>
-      <c r="B30" s="146"/>
-      <c r="C30" s="148"/>
-      <c r="D30" s="173"/>
-      <c r="E30" s="174"/>
-      <c r="F30" s="175"/>
-      <c r="G30" s="146"/>
-      <c r="H30" s="147"/>
-      <c r="I30" s="148"/>
-      <c r="J30" s="158"/>
-      <c r="K30" s="159"/>
-      <c r="L30" s="159"/>
-      <c r="M30" s="159"/>
-      <c r="N30" s="159"/>
-      <c r="O30" s="159"/>
-      <c r="P30" s="160"/>
-      <c r="Q30" s="155"/>
-      <c r="R30" s="156"/>
-      <c r="S30" s="156"/>
-      <c r="T30" s="156"/>
-      <c r="U30" s="156"/>
-      <c r="V30" s="156"/>
-      <c r="W30" s="156"/>
-      <c r="X30" s="156"/>
-      <c r="Y30" s="156"/>
-      <c r="Z30" s="156"/>
-      <c r="AA30" s="156"/>
-      <c r="AB30" s="156"/>
-      <c r="AC30" s="156"/>
-      <c r="AD30" s="156"/>
-      <c r="AE30" s="157"/>
-      <c r="AF30" s="158"/>
-      <c r="AG30" s="159"/>
-      <c r="AH30" s="159"/>
-      <c r="AI30" s="160"/>
-    </row>
-    <row r="31" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="B30" s="155"/>
+      <c r="C30" s="156"/>
+      <c r="D30" s="157"/>
+      <c r="E30" s="158"/>
+      <c r="F30" s="159"/>
+      <c r="G30" s="155"/>
+      <c r="H30" s="160"/>
+      <c r="I30" s="156"/>
+      <c r="J30" s="152"/>
+      <c r="K30" s="153"/>
+      <c r="L30" s="153"/>
+      <c r="M30" s="153"/>
+      <c r="N30" s="153"/>
+      <c r="O30" s="153"/>
+      <c r="P30" s="154"/>
+      <c r="Q30" s="149"/>
+      <c r="R30" s="150"/>
+      <c r="S30" s="150"/>
+      <c r="T30" s="150"/>
+      <c r="U30" s="150"/>
+      <c r="V30" s="150"/>
+      <c r="W30" s="150"/>
+      <c r="X30" s="150"/>
+      <c r="Y30" s="150"/>
+      <c r="Z30" s="150"/>
+      <c r="AA30" s="150"/>
+      <c r="AB30" s="150"/>
+      <c r="AC30" s="150"/>
+      <c r="AD30" s="150"/>
+      <c r="AE30" s="151"/>
+      <c r="AF30" s="152"/>
+      <c r="AG30" s="153"/>
+      <c r="AH30" s="153"/>
+      <c r="AI30" s="154"/>
+    </row>
+    <row r="31" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="57"/>
-      <c r="B31" s="146"/>
-      <c r="C31" s="148"/>
-      <c r="D31" s="173"/>
-      <c r="E31" s="174"/>
-      <c r="F31" s="175"/>
-      <c r="G31" s="146"/>
-      <c r="H31" s="147"/>
-      <c r="I31" s="148"/>
-      <c r="J31" s="158"/>
-      <c r="K31" s="159"/>
-      <c r="L31" s="159"/>
-      <c r="M31" s="159"/>
-      <c r="N31" s="159"/>
-      <c r="O31" s="159"/>
-      <c r="P31" s="160"/>
-      <c r="Q31" s="155"/>
-      <c r="R31" s="156"/>
-      <c r="S31" s="156"/>
-      <c r="T31" s="156"/>
-      <c r="U31" s="156"/>
-      <c r="V31" s="156"/>
-      <c r="W31" s="156"/>
-      <c r="X31" s="156"/>
-      <c r="Y31" s="156"/>
-      <c r="Z31" s="156"/>
-      <c r="AA31" s="156"/>
-      <c r="AB31" s="156"/>
-      <c r="AC31" s="156"/>
-      <c r="AD31" s="156"/>
-      <c r="AE31" s="157"/>
-      <c r="AF31" s="158"/>
-      <c r="AG31" s="159"/>
-      <c r="AH31" s="159"/>
-      <c r="AI31" s="160"/>
-    </row>
-    <row r="32" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="B31" s="155"/>
+      <c r="C31" s="156"/>
+      <c r="D31" s="157"/>
+      <c r="E31" s="158"/>
+      <c r="F31" s="159"/>
+      <c r="G31" s="155"/>
+      <c r="H31" s="160"/>
+      <c r="I31" s="156"/>
+      <c r="J31" s="152"/>
+      <c r="K31" s="153"/>
+      <c r="L31" s="153"/>
+      <c r="M31" s="153"/>
+      <c r="N31" s="153"/>
+      <c r="O31" s="153"/>
+      <c r="P31" s="154"/>
+      <c r="Q31" s="149"/>
+      <c r="R31" s="150"/>
+      <c r="S31" s="150"/>
+      <c r="T31" s="150"/>
+      <c r="U31" s="150"/>
+      <c r="V31" s="150"/>
+      <c r="W31" s="150"/>
+      <c r="X31" s="150"/>
+      <c r="Y31" s="150"/>
+      <c r="Z31" s="150"/>
+      <c r="AA31" s="150"/>
+      <c r="AB31" s="150"/>
+      <c r="AC31" s="150"/>
+      <c r="AD31" s="150"/>
+      <c r="AE31" s="151"/>
+      <c r="AF31" s="152"/>
+      <c r="AG31" s="153"/>
+      <c r="AH31" s="153"/>
+      <c r="AI31" s="154"/>
+    </row>
+    <row r="32" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="57"/>
-      <c r="B32" s="146"/>
-      <c r="C32" s="148"/>
-      <c r="D32" s="173"/>
-      <c r="E32" s="174"/>
-      <c r="F32" s="175"/>
-      <c r="G32" s="146"/>
-      <c r="H32" s="147"/>
-      <c r="I32" s="148"/>
-      <c r="J32" s="158"/>
-      <c r="K32" s="159"/>
-      <c r="L32" s="159"/>
-      <c r="M32" s="159"/>
-      <c r="N32" s="159"/>
-      <c r="O32" s="159"/>
-      <c r="P32" s="160"/>
-      <c r="Q32" s="155"/>
-      <c r="R32" s="156"/>
-      <c r="S32" s="156"/>
-      <c r="T32" s="156"/>
-      <c r="U32" s="156"/>
-      <c r="V32" s="156"/>
-      <c r="W32" s="156"/>
-      <c r="X32" s="156"/>
-      <c r="Y32" s="156"/>
-      <c r="Z32" s="156"/>
-      <c r="AA32" s="156"/>
-      <c r="AB32" s="156"/>
-      <c r="AC32" s="156"/>
-      <c r="AD32" s="156"/>
-      <c r="AE32" s="157"/>
-      <c r="AF32" s="158"/>
-      <c r="AG32" s="159"/>
-      <c r="AH32" s="159"/>
-      <c r="AI32" s="160"/>
-    </row>
-    <row r="33" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="B32" s="155"/>
+      <c r="C32" s="156"/>
+      <c r="D32" s="157"/>
+      <c r="E32" s="158"/>
+      <c r="F32" s="159"/>
+      <c r="G32" s="155"/>
+      <c r="H32" s="160"/>
+      <c r="I32" s="156"/>
+      <c r="J32" s="152"/>
+      <c r="K32" s="153"/>
+      <c r="L32" s="153"/>
+      <c r="M32" s="153"/>
+      <c r="N32" s="153"/>
+      <c r="O32" s="153"/>
+      <c r="P32" s="154"/>
+      <c r="Q32" s="149"/>
+      <c r="R32" s="150"/>
+      <c r="S32" s="150"/>
+      <c r="T32" s="150"/>
+      <c r="U32" s="150"/>
+      <c r="V32" s="150"/>
+      <c r="W32" s="150"/>
+      <c r="X32" s="150"/>
+      <c r="Y32" s="150"/>
+      <c r="Z32" s="150"/>
+      <c r="AA32" s="150"/>
+      <c r="AB32" s="150"/>
+      <c r="AC32" s="150"/>
+      <c r="AD32" s="150"/>
+      <c r="AE32" s="151"/>
+      <c r="AF32" s="152"/>
+      <c r="AG32" s="153"/>
+      <c r="AH32" s="153"/>
+      <c r="AI32" s="154"/>
+    </row>
+    <row r="33" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="57"/>
-      <c r="B33" s="146"/>
-      <c r="C33" s="148"/>
-      <c r="D33" s="173"/>
-      <c r="E33" s="174"/>
-      <c r="F33" s="175"/>
-      <c r="G33" s="146"/>
-      <c r="H33" s="147"/>
-      <c r="I33" s="148"/>
-      <c r="J33" s="158"/>
-      <c r="K33" s="159"/>
-      <c r="L33" s="159"/>
-      <c r="M33" s="159"/>
-      <c r="N33" s="159"/>
-      <c r="O33" s="159"/>
-      <c r="P33" s="160"/>
-      <c r="Q33" s="155"/>
-      <c r="R33" s="156"/>
-      <c r="S33" s="156"/>
-      <c r="T33" s="156"/>
-      <c r="U33" s="156"/>
-      <c r="V33" s="156"/>
-      <c r="W33" s="156"/>
-      <c r="X33" s="156"/>
-      <c r="Y33" s="156"/>
-      <c r="Z33" s="156"/>
-      <c r="AA33" s="156"/>
-      <c r="AB33" s="156"/>
-      <c r="AC33" s="156"/>
-      <c r="AD33" s="156"/>
-      <c r="AE33" s="157"/>
-      <c r="AF33" s="158"/>
-      <c r="AG33" s="159"/>
-      <c r="AH33" s="159"/>
-      <c r="AI33" s="160"/>
-    </row>
-    <row r="34" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="B33" s="155"/>
+      <c r="C33" s="156"/>
+      <c r="D33" s="157"/>
+      <c r="E33" s="158"/>
+      <c r="F33" s="159"/>
+      <c r="G33" s="155"/>
+      <c r="H33" s="160"/>
+      <c r="I33" s="156"/>
+      <c r="J33" s="152"/>
+      <c r="K33" s="153"/>
+      <c r="L33" s="153"/>
+      <c r="M33" s="153"/>
+      <c r="N33" s="153"/>
+      <c r="O33" s="153"/>
+      <c r="P33" s="154"/>
+      <c r="Q33" s="149"/>
+      <c r="R33" s="150"/>
+      <c r="S33" s="150"/>
+      <c r="T33" s="150"/>
+      <c r="U33" s="150"/>
+      <c r="V33" s="150"/>
+      <c r="W33" s="150"/>
+      <c r="X33" s="150"/>
+      <c r="Y33" s="150"/>
+      <c r="Z33" s="150"/>
+      <c r="AA33" s="150"/>
+      <c r="AB33" s="150"/>
+      <c r="AC33" s="150"/>
+      <c r="AD33" s="150"/>
+      <c r="AE33" s="151"/>
+      <c r="AF33" s="152"/>
+      <c r="AG33" s="153"/>
+      <c r="AH33" s="153"/>
+      <c r="AI33" s="154"/>
+    </row>
+    <row r="34" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="28"/>
       <c r="B34" s="28"/>
       <c r="C34" s="28"/>
@@ -4802,6 +4824,161 @@
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
@@ -4826,172 +5003,17 @@
     <mergeCell ref="AF22:AI22"/>
     <mergeCell ref="J23:P23"/>
     <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="S1:Z3"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="99" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5001,7 +5023,7 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16" width="4.83203125" style="63" customWidth="1"/>
     <col min="17" max="17" width="4.83203125" style="48" customWidth="1"/>
@@ -5136,161 +5158,161 @@
     <col min="16163" max="16384" width="4.83203125" style="63"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="32" customFormat="1" ht="11.25">
-      <c r="A1" s="182" t="s">
+    <row r="1" spans="1:35" s="32" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="183"/>
-      <c r="C1" s="183"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="199" t="str">
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="206" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="153"/>
-      <c r="I1" s="153"/>
-      <c r="J1" s="153"/>
-      <c r="K1" s="153"/>
-      <c r="L1" s="153"/>
-      <c r="M1" s="153"/>
-      <c r="N1" s="154"/>
-      <c r="O1" s="185" t="s">
+      <c r="F1" s="183"/>
+      <c r="G1" s="183"/>
+      <c r="H1" s="183"/>
+      <c r="I1" s="183"/>
+      <c r="J1" s="183"/>
+      <c r="K1" s="183"/>
+      <c r="L1" s="183"/>
+      <c r="M1" s="183"/>
+      <c r="N1" s="184"/>
+      <c r="O1" s="138" t="s">
         <v>39</v>
       </c>
-      <c r="P1" s="186"/>
-      <c r="Q1" s="186"/>
-      <c r="R1" s="187"/>
-      <c r="S1" s="200" t="str">
+      <c r="P1" s="139"/>
+      <c r="Q1" s="139"/>
+      <c r="R1" s="140"/>
+      <c r="S1" s="197" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書（画面）
 WA10102/ログアウト</v>
       </c>
-      <c r="T1" s="201"/>
-      <c r="U1" s="201"/>
-      <c r="V1" s="201"/>
-      <c r="W1" s="201"/>
-      <c r="X1" s="201"/>
-      <c r="Y1" s="201"/>
-      <c r="Z1" s="202"/>
-      <c r="AA1" s="182" t="s">
+      <c r="T1" s="198"/>
+      <c r="U1" s="198"/>
+      <c r="V1" s="198"/>
+      <c r="W1" s="198"/>
+      <c r="X1" s="198"/>
+      <c r="Y1" s="198"/>
+      <c r="Z1" s="199"/>
+      <c r="AA1" s="135" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="184"/>
-      <c r="AC1" s="134" t="str">
+      <c r="AB1" s="137"/>
+      <c r="AC1" s="170" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="135"/>
-      <c r="AE1" s="135"/>
-      <c r="AF1" s="136"/>
-      <c r="AG1" s="196">
+      <c r="AD1" s="171"/>
+      <c r="AE1" s="171"/>
+      <c r="AF1" s="172"/>
+      <c r="AG1" s="207">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43697</v>
       </c>
-      <c r="AH1" s="197"/>
-      <c r="AI1" s="198"/>
-    </row>
-    <row r="2" spans="1:35" s="32" customFormat="1" ht="11.25">
-      <c r="A2" s="182" t="s">
+      <c r="AH1" s="208"/>
+      <c r="AI1" s="209"/>
+    </row>
+    <row r="2" spans="1:35" s="32" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="135" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="183"/>
-      <c r="C2" s="183"/>
-      <c r="D2" s="184"/>
-      <c r="E2" s="199" t="str">
+      <c r="B2" s="136"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="137"/>
+      <c r="E2" s="206" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="153"/>
-      <c r="J2" s="153"/>
-      <c r="K2" s="153"/>
-      <c r="L2" s="153"/>
-      <c r="M2" s="153"/>
-      <c r="N2" s="154"/>
-      <c r="O2" s="188"/>
-      <c r="P2" s="189"/>
-      <c r="Q2" s="189"/>
-      <c r="R2" s="190"/>
-      <c r="S2" s="203"/>
-      <c r="T2" s="204"/>
-      <c r="U2" s="204"/>
-      <c r="V2" s="204"/>
-      <c r="W2" s="204"/>
-      <c r="X2" s="204"/>
-      <c r="Y2" s="204"/>
-      <c r="Z2" s="205"/>
-      <c r="AA2" s="182" t="s">
+      <c r="F2" s="183"/>
+      <c r="G2" s="183"/>
+      <c r="H2" s="183"/>
+      <c r="I2" s="183"/>
+      <c r="J2" s="183"/>
+      <c r="K2" s="183"/>
+      <c r="L2" s="183"/>
+      <c r="M2" s="183"/>
+      <c r="N2" s="184"/>
+      <c r="O2" s="141"/>
+      <c r="P2" s="142"/>
+      <c r="Q2" s="142"/>
+      <c r="R2" s="143"/>
+      <c r="S2" s="200"/>
+      <c r="T2" s="201"/>
+      <c r="U2" s="201"/>
+      <c r="V2" s="201"/>
+      <c r="W2" s="201"/>
+      <c r="X2" s="201"/>
+      <c r="Y2" s="201"/>
+      <c r="Z2" s="202"/>
+      <c r="AA2" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="184"/>
-      <c r="AC2" s="134" t="str">
+      <c r="AB2" s="137"/>
+      <c r="AC2" s="170" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="135"/>
-      <c r="AE2" s="135"/>
-      <c r="AF2" s="136"/>
-      <c r="AG2" s="196" t="str">
+      <c r="AD2" s="171"/>
+      <c r="AE2" s="171"/>
+      <c r="AF2" s="172"/>
+      <c r="AG2" s="207" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="197"/>
-      <c r="AI2" s="198"/>
-    </row>
-    <row r="3" spans="1:35" s="32" customFormat="1" ht="11.25">
-      <c r="A3" s="182" t="s">
+      <c r="AH2" s="208"/>
+      <c r="AI2" s="209"/>
+    </row>
+    <row r="3" spans="1:35" s="32" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="183"/>
-      <c r="C3" s="183"/>
-      <c r="D3" s="184"/>
-      <c r="E3" s="199" t="str">
+      <c r="B3" s="136"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="206" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="153"/>
-      <c r="G3" s="153"/>
-      <c r="H3" s="153"/>
-      <c r="I3" s="153"/>
-      <c r="J3" s="153"/>
-      <c r="K3" s="153"/>
-      <c r="L3" s="153"/>
-      <c r="M3" s="153"/>
-      <c r="N3" s="154"/>
-      <c r="O3" s="191"/>
-      <c r="P3" s="192"/>
-      <c r="Q3" s="192"/>
-      <c r="R3" s="193"/>
-      <c r="S3" s="206"/>
-      <c r="T3" s="207"/>
-      <c r="U3" s="207"/>
-      <c r="V3" s="207"/>
-      <c r="W3" s="207"/>
-      <c r="X3" s="207"/>
-      <c r="Y3" s="207"/>
-      <c r="Z3" s="208"/>
-      <c r="AA3" s="182"/>
-      <c r="AB3" s="184"/>
-      <c r="AC3" s="134" t="str">
+      <c r="F3" s="183"/>
+      <c r="G3" s="183"/>
+      <c r="H3" s="183"/>
+      <c r="I3" s="183"/>
+      <c r="J3" s="183"/>
+      <c r="K3" s="183"/>
+      <c r="L3" s="183"/>
+      <c r="M3" s="183"/>
+      <c r="N3" s="184"/>
+      <c r="O3" s="144"/>
+      <c r="P3" s="145"/>
+      <c r="Q3" s="145"/>
+      <c r="R3" s="146"/>
+      <c r="S3" s="203"/>
+      <c r="T3" s="204"/>
+      <c r="U3" s="204"/>
+      <c r="V3" s="204"/>
+      <c r="W3" s="204"/>
+      <c r="X3" s="204"/>
+      <c r="Y3" s="204"/>
+      <c r="Z3" s="205"/>
+      <c r="AA3" s="135"/>
+      <c r="AB3" s="137"/>
+      <c r="AC3" s="170" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="135"/>
-      <c r="AE3" s="135"/>
-      <c r="AF3" s="136"/>
-      <c r="AG3" s="196" t="str">
+      <c r="AD3" s="171"/>
+      <c r="AE3" s="171"/>
+      <c r="AF3" s="172"/>
+      <c r="AG3" s="207" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="197"/>
-      <c r="AI3" s="198"/>
-    </row>
-    <row r="4" spans="1:35" s="35" customFormat="1" ht="19.5" customHeight="1">
+      <c r="AH3" s="208"/>
+      <c r="AI3" s="209"/>
+    </row>
+    <row r="4" spans="1:35" s="35" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="29"/>
       <c r="B4" s="29"/>
       <c r="C4" s="29"/>
@@ -5327,7 +5349,7 @@
       <c r="AH4" s="29"/>
       <c r="AI4" s="29"/>
     </row>
-    <row r="5" spans="1:35" s="35" customFormat="1" ht="15" customHeight="1">
+    <row r="5" spans="1:35" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="29"/>
       <c r="B5" s="29"/>
       <c r="C5" s="29"/>
@@ -5366,7 +5388,7 @@
       <c r="AH5" s="29"/>
       <c r="AI5" s="29"/>
     </row>
-    <row r="6" spans="1:35" s="27" customFormat="1" ht="15" customHeight="1">
+    <row r="6" spans="1:35" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="58"/>
       <c r="B6" s="58"/>
       <c r="C6" s="58"/>
@@ -5403,7 +5425,7 @@
       <c r="AH6" s="58"/>
       <c r="AI6" s="58"/>
     </row>
-    <row r="7" spans="1:35" ht="15" customHeight="1">
+    <row r="7" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="31"/>
       <c r="B7" s="37" t="s">
         <v>32</v>
@@ -5442,7 +5464,7 @@
       <c r="AH7" s="38"/>
       <c r="AI7" s="62"/>
     </row>
-    <row r="8" spans="1:35" ht="15" customHeight="1">
+    <row r="8" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="31"/>
       <c r="B8" s="37"/>
       <c r="C8" s="37" t="s">
@@ -5481,7 +5503,7 @@
       <c r="AH8" s="39"/>
       <c r="AI8" s="62"/>
     </row>
-    <row r="9" spans="1:35" ht="15" customHeight="1">
+    <row r="9" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="31"/>
       <c r="B9" s="53"/>
       <c r="C9" s="37"/>
@@ -5518,10 +5540,10 @@
       <c r="AH9" s="40"/>
       <c r="AI9" s="31"/>
     </row>
-    <row r="10" spans="1:35" ht="15" customHeight="1">
+    <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="31"/>
-      <c r="B10" s="41" t="s">
-        <v>81</v>
+      <c r="B10" s="129" t="s">
+        <v>90</v>
       </c>
       <c r="C10" s="53"/>
       <c r="D10" s="31"/>
@@ -5557,7 +5579,7 @@
       <c r="AH10" s="38"/>
       <c r="AI10" s="62"/>
     </row>
-    <row r="11" spans="1:35" ht="15" customHeight="1">
+    <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="31"/>
       <c r="B11" s="53"/>
       <c r="C11" s="41" t="s">
@@ -5596,7 +5618,7 @@
       <c r="AH11" s="38"/>
       <c r="AI11" s="62"/>
     </row>
-    <row r="12" spans="1:35" ht="15" customHeight="1">
+    <row r="12" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="31"/>
       <c r="B12" s="53"/>
       <c r="C12" s="31" t="s">
@@ -5630,7 +5652,7 @@
       <c r="AH12" s="38"/>
       <c r="AI12" s="62"/>
     </row>
-    <row r="13" spans="1:35" ht="15" customHeight="1">
+    <row r="13" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="31"/>
       <c r="B13" s="62"/>
       <c r="C13" s="28" t="s">
@@ -5669,7 +5691,7 @@
       <c r="AH13" s="38"/>
       <c r="AI13" s="62"/>
     </row>
-    <row r="14" spans="1:35" ht="15" customHeight="1">
+    <row r="14" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="31"/>
       <c r="B14" s="41"/>
       <c r="C14" s="28" t="s">
@@ -5708,7 +5730,7 @@
       <c r="AH14" s="38"/>
       <c r="AI14" s="62"/>
     </row>
-    <row r="15" spans="1:35" ht="15" customHeight="1">
+    <row r="15" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="31"/>
       <c r="B15" s="41"/>
       <c r="C15" s="28" t="s">
@@ -5743,7 +5765,7 @@
       <c r="AH15" s="38"/>
       <c r="AI15" s="62"/>
     </row>
-    <row r="16" spans="1:35" ht="15" customHeight="1">
+    <row r="16" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="31"/>
       <c r="B16" s="58"/>
       <c r="C16" s="31" t="s">
@@ -5782,7 +5804,7 @@
       <c r="AH16" s="38"/>
       <c r="AI16" s="62"/>
     </row>
-    <row r="17" spans="1:35" ht="15" customHeight="1">
+    <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="31"/>
       <c r="B17" s="58"/>
       <c r="C17" s="33"/>
@@ -5818,7 +5840,7 @@
       <c r="AH17" s="38"/>
       <c r="AI17" s="62"/>
     </row>
-    <row r="18" spans="1:35" ht="15" customHeight="1">
+    <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="26"/>
       <c r="B18" s="26"/>
       <c r="C18" s="26"/>
@@ -5855,7 +5877,7 @@
       <c r="AH18" s="42"/>
       <c r="AI18" s="68"/>
     </row>
-    <row r="19" spans="1:35" ht="15" customHeight="1">
+    <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="71"/>
       <c r="E19" s="71"/>
       <c r="F19" s="71"/>
@@ -5889,7 +5911,7 @@
       <c r="AH19" s="42"/>
       <c r="AI19" s="68"/>
     </row>
-    <row r="20" spans="1:35" ht="15" customHeight="1">
+    <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J20" s="71"/>
       <c r="K20" s="69"/>
       <c r="L20" s="69"/>
@@ -5917,7 +5939,7 @@
       <c r="AH20" s="42"/>
       <c r="AI20" s="68"/>
     </row>
-    <row r="21" spans="1:35" ht="15" customHeight="1">
+    <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K21" s="26"/>
       <c r="L21" s="26"/>
       <c r="M21" s="26"/>
@@ -5944,7 +5966,7 @@
       <c r="AH21" s="46"/>
       <c r="AI21" s="26"/>
     </row>
-    <row r="22" spans="1:35" ht="15" customHeight="1">
+    <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K22" s="71"/>
       <c r="L22" s="71"/>
       <c r="M22" s="71"/>
@@ -5969,7 +5991,7 @@
       <c r="AH22" s="49"/>
       <c r="AI22" s="72"/>
     </row>
-    <row r="23" spans="1:35" ht="15" customHeight="1">
+    <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="S23" s="72"/>
       <c r="T23" s="72"/>
       <c r="U23" s="73"/>
@@ -5988,7 +6010,7 @@
       <c r="AH23" s="51"/>
       <c r="AI23" s="72"/>
     </row>
-    <row r="24" spans="1:35" ht="15" customHeight="1">
+    <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J24" s="71"/>
       <c r="Q24" s="52"/>
       <c r="S24" s="72"/>
@@ -6009,7 +6031,7 @@
       <c r="AH24" s="51"/>
       <c r="AI24" s="72"/>
     </row>
-    <row r="25" spans="1:35" ht="15" customHeight="1">
+    <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="S25" s="72"/>
       <c r="T25" s="72"/>
       <c r="U25" s="72"/>
@@ -6028,7 +6050,7 @@
       <c r="AH25" s="51"/>
       <c r="AI25" s="72"/>
     </row>
-    <row r="26" spans="1:35" ht="15" customHeight="1">
+    <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="71"/>
       <c r="K26" s="71"/>
       <c r="L26" s="71"/>
@@ -6042,7 +6064,7 @@
       <c r="AH26" s="51"/>
       <c r="AI26" s="72"/>
     </row>
-    <row r="27" spans="1:35" ht="15" customHeight="1">
+    <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="71"/>
       <c r="AE27" s="72"/>
       <c r="AF27" s="76"/>
@@ -6050,28 +6072,28 @@
       <c r="AH27" s="51"/>
       <c r="AI27" s="72"/>
     </row>
-    <row r="28" spans="1:35" ht="15" customHeight="1">
+    <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AE28" s="72"/>
       <c r="AF28" s="76"/>
       <c r="AG28" s="76"/>
       <c r="AH28" s="51"/>
       <c r="AI28" s="72"/>
     </row>
-    <row r="29" spans="1:35" ht="15" customHeight="1">
+    <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AF29" s="77"/>
       <c r="AG29" s="77"/>
     </row>
-    <row r="30" spans="1:35" ht="15" customHeight="1">
+    <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AG30" s="77"/>
     </row>
-    <row r="31" spans="1:35" ht="15" customHeight="1">
+    <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AF31" s="77"/>
       <c r="AG31" s="77"/>
     </row>
-    <row r="32" spans="1:35" ht="15" customHeight="1">
+    <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AG32" s="77"/>
     </row>
-    <row r="33" spans="1:34" ht="15" customHeight="1">
+    <row r="33" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="S33" s="71"/>
       <c r="T33" s="71"/>
       <c r="V33" s="71"/>
@@ -6084,7 +6106,7 @@
       <c r="AC33" s="71"/>
       <c r="AD33" s="71"/>
     </row>
-    <row r="34" spans="1:34" ht="15" customHeight="1">
+    <row r="34" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="R34" s="71"/>
       <c r="S34" s="71"/>
       <c r="T34" s="71"/>
@@ -6099,10 +6121,10 @@
       <c r="AD34" s="71"/>
       <c r="AG34" s="77"/>
     </row>
-    <row r="35" spans="1:34" ht="15" customHeight="1">
+    <row r="35" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="R35" s="71"/>
     </row>
-    <row r="36" spans="1:34" s="71" customFormat="1" ht="15" customHeight="1">
+    <row r="36" spans="1:34" s="71" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="63"/>
       <c r="B36" s="63"/>
       <c r="C36" s="63"/>
@@ -6135,7 +6157,7 @@
       <c r="AD36" s="63"/>
       <c r="AH36" s="52"/>
     </row>
-    <row r="37" spans="1:34" s="71" customFormat="1" ht="15" customHeight="1">
+    <row r="37" spans="1:34" s="71" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="63"/>
       <c r="B37" s="63"/>
       <c r="C37" s="63"/>
@@ -6170,6 +6192,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="S1:Z3"/>
@@ -6179,20 +6209,13 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="99" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6207,263 +6230,263 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="4.83203125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="32" customFormat="1">
-      <c r="A1" s="182" t="s">
+    <row r="1" spans="1:35" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="135" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="183"/>
-      <c r="C1" s="183"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="199" t="str">
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="206" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="153"/>
-      <c r="I1" s="153"/>
-      <c r="J1" s="153"/>
-      <c r="K1" s="153"/>
-      <c r="L1" s="153"/>
-      <c r="M1" s="153"/>
-      <c r="N1" s="154"/>
-      <c r="O1" s="185" t="s">
+      <c r="F1" s="183"/>
+      <c r="G1" s="183"/>
+      <c r="H1" s="183"/>
+      <c r="I1" s="183"/>
+      <c r="J1" s="183"/>
+      <c r="K1" s="183"/>
+      <c r="L1" s="183"/>
+      <c r="M1" s="183"/>
+      <c r="N1" s="184"/>
+      <c r="O1" s="138" t="s">
         <v>39</v>
       </c>
-      <c r="P1" s="186"/>
-      <c r="Q1" s="186"/>
-      <c r="R1" s="187"/>
-      <c r="S1" s="200" t="str">
+      <c r="P1" s="139"/>
+      <c r="Q1" s="139"/>
+      <c r="R1" s="140"/>
+      <c r="S1" s="197" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書（画面）
 WA10102/ログアウト</v>
       </c>
-      <c r="T1" s="201"/>
-      <c r="U1" s="201"/>
-      <c r="V1" s="201"/>
-      <c r="W1" s="201"/>
-      <c r="X1" s="201"/>
-      <c r="Y1" s="201"/>
-      <c r="Z1" s="202"/>
-      <c r="AA1" s="182" t="s">
+      <c r="T1" s="198"/>
+      <c r="U1" s="198"/>
+      <c r="V1" s="198"/>
+      <c r="W1" s="198"/>
+      <c r="X1" s="198"/>
+      <c r="Y1" s="198"/>
+      <c r="Z1" s="199"/>
+      <c r="AA1" s="135" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="184"/>
-      <c r="AC1" s="134" t="str">
+      <c r="AB1" s="137"/>
+      <c r="AC1" s="170" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="135"/>
-      <c r="AE1" s="135"/>
-      <c r="AF1" s="136"/>
-      <c r="AG1" s="196">
+      <c r="AD1" s="171"/>
+      <c r="AE1" s="171"/>
+      <c r="AF1" s="172"/>
+      <c r="AG1" s="207">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43697</v>
       </c>
-      <c r="AH1" s="197"/>
-      <c r="AI1" s="198"/>
-    </row>
-    <row r="2" spans="1:35" s="32" customFormat="1">
-      <c r="A2" s="182" t="s">
+      <c r="AH1" s="208"/>
+      <c r="AI1" s="209"/>
+    </row>
+    <row r="2" spans="1:35" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="135" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="183"/>
-      <c r="C2" s="183"/>
-      <c r="D2" s="184"/>
-      <c r="E2" s="199" t="str">
+      <c r="B2" s="136"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="137"/>
+      <c r="E2" s="206" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="153"/>
-      <c r="J2" s="153"/>
-      <c r="K2" s="153"/>
-      <c r="L2" s="153"/>
-      <c r="M2" s="153"/>
-      <c r="N2" s="154"/>
-      <c r="O2" s="188"/>
-      <c r="P2" s="189"/>
-      <c r="Q2" s="189"/>
-      <c r="R2" s="190"/>
-      <c r="S2" s="203"/>
-      <c r="T2" s="204"/>
-      <c r="U2" s="204"/>
-      <c r="V2" s="204"/>
-      <c r="W2" s="204"/>
-      <c r="X2" s="204"/>
-      <c r="Y2" s="204"/>
-      <c r="Z2" s="205"/>
-      <c r="AA2" s="182" t="s">
+      <c r="F2" s="183"/>
+      <c r="G2" s="183"/>
+      <c r="H2" s="183"/>
+      <c r="I2" s="183"/>
+      <c r="J2" s="183"/>
+      <c r="K2" s="183"/>
+      <c r="L2" s="183"/>
+      <c r="M2" s="183"/>
+      <c r="N2" s="184"/>
+      <c r="O2" s="141"/>
+      <c r="P2" s="142"/>
+      <c r="Q2" s="142"/>
+      <c r="R2" s="143"/>
+      <c r="S2" s="200"/>
+      <c r="T2" s="201"/>
+      <c r="U2" s="201"/>
+      <c r="V2" s="201"/>
+      <c r="W2" s="201"/>
+      <c r="X2" s="201"/>
+      <c r="Y2" s="201"/>
+      <c r="Z2" s="202"/>
+      <c r="AA2" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="184"/>
-      <c r="AC2" s="134" t="str">
+      <c r="AB2" s="137"/>
+      <c r="AC2" s="170" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="135"/>
-      <c r="AE2" s="135"/>
-      <c r="AF2" s="136"/>
-      <c r="AG2" s="196" t="str">
+      <c r="AD2" s="171"/>
+      <c r="AE2" s="171"/>
+      <c r="AF2" s="172"/>
+      <c r="AG2" s="207" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="197"/>
-      <c r="AI2" s="198"/>
-    </row>
-    <row r="3" spans="1:35" s="32" customFormat="1">
-      <c r="A3" s="182" t="s">
+      <c r="AH2" s="208"/>
+      <c r="AI2" s="209"/>
+    </row>
+    <row r="3" spans="1:35" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="183"/>
-      <c r="C3" s="183"/>
-      <c r="D3" s="184"/>
-      <c r="E3" s="199" t="str">
+      <c r="B3" s="136"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="206" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="153"/>
-      <c r="G3" s="153"/>
-      <c r="H3" s="153"/>
-      <c r="I3" s="153"/>
-      <c r="J3" s="153"/>
-      <c r="K3" s="153"/>
-      <c r="L3" s="153"/>
-      <c r="M3" s="153"/>
-      <c r="N3" s="154"/>
-      <c r="O3" s="191"/>
-      <c r="P3" s="192"/>
-      <c r="Q3" s="192"/>
-      <c r="R3" s="193"/>
-      <c r="S3" s="206"/>
-      <c r="T3" s="207"/>
-      <c r="U3" s="207"/>
-      <c r="V3" s="207"/>
-      <c r="W3" s="207"/>
-      <c r="X3" s="207"/>
-      <c r="Y3" s="207"/>
-      <c r="Z3" s="208"/>
-      <c r="AA3" s="182"/>
-      <c r="AB3" s="184"/>
-      <c r="AC3" s="134" t="str">
+      <c r="F3" s="183"/>
+      <c r="G3" s="183"/>
+      <c r="H3" s="183"/>
+      <c r="I3" s="183"/>
+      <c r="J3" s="183"/>
+      <c r="K3" s="183"/>
+      <c r="L3" s="183"/>
+      <c r="M3" s="183"/>
+      <c r="N3" s="184"/>
+      <c r="O3" s="144"/>
+      <c r="P3" s="145"/>
+      <c r="Q3" s="145"/>
+      <c r="R3" s="146"/>
+      <c r="S3" s="203"/>
+      <c r="T3" s="204"/>
+      <c r="U3" s="204"/>
+      <c r="V3" s="204"/>
+      <c r="W3" s="204"/>
+      <c r="X3" s="204"/>
+      <c r="Y3" s="204"/>
+      <c r="Z3" s="205"/>
+      <c r="AA3" s="135"/>
+      <c r="AB3" s="137"/>
+      <c r="AC3" s="170" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="135"/>
-      <c r="AE3" s="135"/>
-      <c r="AF3" s="136"/>
-      <c r="AG3" s="196" t="str">
+      <c r="AD3" s="171"/>
+      <c r="AE3" s="171"/>
+      <c r="AF3" s="172"/>
+      <c r="AG3" s="207" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="197"/>
-      <c r="AI3" s="198"/>
-    </row>
-    <row r="4" spans="1:35" ht="12" customHeight="1"/>
-    <row r="5" spans="1:35" s="90" customFormat="1" ht="12" customHeight="1">
+      <c r="AH3" s="208"/>
+      <c r="AI3" s="209"/>
+    </row>
+    <row r="4" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:35" s="90" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="90" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:35" s="90" customFormat="1" ht="12" customHeight="1">
+    <row r="6" spans="1:35" s="90" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="90" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:35" s="90" customFormat="1" ht="12" customHeight="1"/>
-    <row r="8" spans="1:35" s="90" customFormat="1" ht="12" customHeight="1">
+    <row r="7" spans="1:35" s="90" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:35" s="90" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="91"/>
-      <c r="C8" s="219" t="s">
+      <c r="C8" s="220" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="220"/>
-      <c r="E8" s="220"/>
-      <c r="F8" s="221"/>
-      <c r="G8" s="158" t="s">
-        <v>92</v>
-      </c>
-      <c r="H8" s="222"/>
-      <c r="I8" s="222"/>
-      <c r="J8" s="222"/>
-      <c r="K8" s="222"/>
-      <c r="L8" s="220"/>
-      <c r="M8" s="220"/>
-      <c r="N8" s="220"/>
-      <c r="O8" s="220"/>
-      <c r="P8" s="220"/>
-      <c r="Q8" s="220"/>
-      <c r="R8" s="220"/>
-      <c r="S8" s="220"/>
-      <c r="T8" s="220"/>
-      <c r="U8" s="220"/>
-      <c r="V8" s="220"/>
-      <c r="W8" s="220"/>
-      <c r="X8" s="220"/>
-      <c r="Y8" s="220"/>
-      <c r="Z8" s="220"/>
-      <c r="AA8" s="220"/>
-      <c r="AB8" s="220"/>
-      <c r="AC8" s="220"/>
-      <c r="AD8" s="220"/>
-      <c r="AE8" s="220"/>
-      <c r="AF8" s="220"/>
-      <c r="AG8" s="221"/>
-    </row>
-    <row r="9" spans="1:35" s="90" customFormat="1" ht="12" customHeight="1">
+      <c r="D8" s="221"/>
+      <c r="E8" s="221"/>
+      <c r="F8" s="222"/>
+      <c r="G8" s="152" t="s">
+        <v>89</v>
+      </c>
+      <c r="H8" s="223"/>
+      <c r="I8" s="223"/>
+      <c r="J8" s="223"/>
+      <c r="K8" s="223"/>
+      <c r="L8" s="221"/>
+      <c r="M8" s="221"/>
+      <c r="N8" s="221"/>
+      <c r="O8" s="221"/>
+      <c r="P8" s="221"/>
+      <c r="Q8" s="221"/>
+      <c r="R8" s="221"/>
+      <c r="S8" s="221"/>
+      <c r="T8" s="221"/>
+      <c r="U8" s="221"/>
+      <c r="V8" s="221"/>
+      <c r="W8" s="221"/>
+      <c r="X8" s="221"/>
+      <c r="Y8" s="221"/>
+      <c r="Z8" s="221"/>
+      <c r="AA8" s="221"/>
+      <c r="AB8" s="221"/>
+      <c r="AC8" s="221"/>
+      <c r="AD8" s="221"/>
+      <c r="AE8" s="221"/>
+      <c r="AF8" s="221"/>
+      <c r="AG8" s="222"/>
+    </row>
+    <row r="9" spans="1:35" s="90" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="91"/>
-      <c r="C9" s="223" t="s">
+      <c r="C9" s="224" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="224"/>
-      <c r="E9" s="224"/>
-      <c r="F9" s="225"/>
-      <c r="G9" s="158" t="s">
-        <v>83</v>
-      </c>
-      <c r="H9" s="220"/>
-      <c r="I9" s="220"/>
-      <c r="J9" s="220"/>
-      <c r="K9" s="220"/>
-      <c r="L9" s="220"/>
-      <c r="M9" s="220"/>
-      <c r="N9" s="220"/>
-      <c r="O9" s="220"/>
-      <c r="P9" s="220"/>
-      <c r="Q9" s="220"/>
-      <c r="R9" s="220"/>
-      <c r="S9" s="220"/>
-      <c r="T9" s="220"/>
-      <c r="U9" s="220"/>
-      <c r="V9" s="220"/>
-      <c r="W9" s="220"/>
-      <c r="X9" s="220"/>
-      <c r="Y9" s="220"/>
-      <c r="Z9" s="220"/>
-      <c r="AA9" s="220"/>
-      <c r="AB9" s="220"/>
-      <c r="AC9" s="220"/>
-      <c r="AD9" s="220"/>
-      <c r="AE9" s="220"/>
-      <c r="AF9" s="220"/>
-      <c r="AG9" s="221"/>
-    </row>
-    <row r="10" spans="1:35" s="90" customFormat="1" ht="12" customHeight="1">
+      <c r="D9" s="225"/>
+      <c r="E9" s="225"/>
+      <c r="F9" s="226"/>
+      <c r="G9" s="152" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9" s="221"/>
+      <c r="I9" s="221"/>
+      <c r="J9" s="221"/>
+      <c r="K9" s="221"/>
+      <c r="L9" s="221"/>
+      <c r="M9" s="221"/>
+      <c r="N9" s="221"/>
+      <c r="O9" s="221"/>
+      <c r="P9" s="221"/>
+      <c r="Q9" s="221"/>
+      <c r="R9" s="221"/>
+      <c r="S9" s="221"/>
+      <c r="T9" s="221"/>
+      <c r="U9" s="221"/>
+      <c r="V9" s="221"/>
+      <c r="W9" s="221"/>
+      <c r="X9" s="221"/>
+      <c r="Y9" s="221"/>
+      <c r="Z9" s="221"/>
+      <c r="AA9" s="221"/>
+      <c r="AB9" s="221"/>
+      <c r="AC9" s="221"/>
+      <c r="AD9" s="221"/>
+      <c r="AE9" s="221"/>
+      <c r="AF9" s="221"/>
+      <c r="AG9" s="222"/>
+    </row>
+    <row r="10" spans="1:35" s="90" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="91"/>
-      <c r="C10" s="210" t="s">
+      <c r="C10" s="211" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="211"/>
-      <c r="E10" s="211"/>
-      <c r="F10" s="212"/>
+      <c r="D10" s="212"/>
+      <c r="E10" s="212"/>
+      <c r="F10" s="213"/>
       <c r="G10" s="131" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H10" s="92"/>
       <c r="I10" s="92"/>
@@ -6492,12 +6515,12 @@
       <c r="AF10" s="92"/>
       <c r="AG10" s="93"/>
     </row>
-    <row r="11" spans="1:35" s="90" customFormat="1" ht="12" customHeight="1">
+    <row r="11" spans="1:35" s="90" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="91"/>
-      <c r="C11" s="213"/>
-      <c r="D11" s="214"/>
-      <c r="E11" s="214"/>
-      <c r="F11" s="215"/>
+      <c r="C11" s="214"/>
+      <c r="D11" s="215"/>
+      <c r="E11" s="215"/>
+      <c r="F11" s="216"/>
       <c r="G11" s="94"/>
       <c r="H11" s="35"/>
       <c r="I11" s="35"/>
@@ -6526,12 +6549,12 @@
       <c r="AF11" s="35"/>
       <c r="AG11" s="95"/>
     </row>
-    <row r="12" spans="1:35" s="90" customFormat="1" ht="12" customHeight="1">
+    <row r="12" spans="1:35" s="90" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="91"/>
-      <c r="C12" s="213"/>
-      <c r="D12" s="214"/>
-      <c r="E12" s="214"/>
-      <c r="F12" s="215"/>
+      <c r="C12" s="214"/>
+      <c r="D12" s="215"/>
+      <c r="E12" s="215"/>
+      <c r="F12" s="216"/>
       <c r="G12" s="132"/>
       <c r="H12" s="35"/>
       <c r="I12" s="35"/>
@@ -6560,12 +6583,12 @@
       <c r="AF12" s="35"/>
       <c r="AG12" s="95"/>
     </row>
-    <row r="13" spans="1:35" s="90" customFormat="1" ht="12" customHeight="1">
+    <row r="13" spans="1:35" s="90" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="91"/>
-      <c r="C13" s="216"/>
-      <c r="D13" s="217"/>
-      <c r="E13" s="217"/>
-      <c r="F13" s="218"/>
+      <c r="C13" s="217"/>
+      <c r="D13" s="218"/>
+      <c r="E13" s="218"/>
+      <c r="F13" s="219"/>
       <c r="G13" s="96"/>
       <c r="H13" s="97"/>
       <c r="I13" s="97"/>
@@ -6594,16 +6617,16 @@
       <c r="AF13" s="97"/>
       <c r="AG13" s="98"/>
     </row>
-    <row r="14" spans="1:35" s="90" customFormat="1" ht="12" customHeight="1">
+    <row r="14" spans="1:35" s="90" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="91"/>
-      <c r="C14" s="209" t="s">
+      <c r="C14" s="210" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="209"/>
-      <c r="E14" s="209"/>
-      <c r="F14" s="209"/>
+      <c r="D14" s="210"/>
+      <c r="E14" s="210"/>
+      <c r="F14" s="210"/>
       <c r="G14" s="99" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H14" s="100"/>
       <c r="I14" s="100"/>
@@ -6632,46 +6655,58 @@
       <c r="AF14" s="100"/>
       <c r="AG14" s="101"/>
     </row>
-    <row r="15" spans="1:35" ht="12" customHeight="1"/>
-    <row r="16" spans="1:35" ht="12" customHeight="1"/>
-    <row r="17" ht="12" customHeight="1"/>
-    <row r="18" ht="12" customHeight="1"/>
-    <row r="19" ht="12" customHeight="1"/>
-    <row r="20" ht="12" customHeight="1"/>
-    <row r="21" ht="12" customHeight="1"/>
-    <row r="22" ht="12" customHeight="1"/>
-    <row r="23" ht="12" customHeight="1"/>
-    <row r="24" ht="12" customHeight="1"/>
-    <row r="25" ht="12" customHeight="1"/>
-    <row r="26" ht="12" customHeight="1"/>
-    <row r="27" ht="12" customHeight="1"/>
-    <row r="28" ht="12" customHeight="1"/>
-    <row r="29" ht="12" customHeight="1"/>
-    <row r="30" ht="12" customHeight="1"/>
-    <row r="31" ht="12" customHeight="1"/>
-    <row r="32" ht="12" customHeight="1"/>
-    <row r="33" ht="12" customHeight="1"/>
-    <row r="34" ht="12" customHeight="1"/>
-    <row r="35" ht="12" customHeight="1"/>
-    <row r="36" ht="12" customHeight="1"/>
-    <row r="37" ht="12" customHeight="1"/>
-    <row r="38" ht="12" customHeight="1"/>
-    <row r="39" ht="12" customHeight="1"/>
-    <row r="40" ht="12" customHeight="1"/>
-    <row r="41" ht="12" customHeight="1"/>
-    <row r="42" ht="12" customHeight="1"/>
-    <row r="43" ht="12" customHeight="1"/>
-    <row r="44" ht="12" customHeight="1"/>
-    <row r="45" ht="12" customHeight="1"/>
-    <row r="46" ht="12" customHeight="1"/>
-    <row r="47" ht="12" customHeight="1"/>
-    <row r="48" ht="12" customHeight="1"/>
-    <row r="49" ht="12" customHeight="1"/>
-    <row r="50" ht="12" customHeight="1"/>
-    <row r="51" ht="12" customHeight="1"/>
-    <row r="52" ht="12" customHeight="1"/>
+    <row r="15" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="23" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="24" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="25" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="26" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="27" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="29" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="33" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="37" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C10:F13"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:AG8"/>
+    <mergeCell ref="G9:AG9"/>
+    <mergeCell ref="C9:F9"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="S1:Z3"/>
@@ -6683,23 +6718,11 @@
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="E3:N3"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C10:F13"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:AG8"/>
-    <mergeCell ref="G9:AG9"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="99" fitToHeight="0" orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C- &amp;P -</oddFooter>
   </headerFooter>
@@ -6717,189 +6740,189 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="7" width="4.83203125" style="17"/>
     <col min="8" max="9" width="4.83203125" style="17" customWidth="1"/>
     <col min="10" max="16384" width="4.83203125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" s="32" customFormat="1">
-      <c r="A1" s="231" t="s">
+    <row r="1" spans="1:53" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="249" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="232"/>
-      <c r="C1" s="232"/>
-      <c r="D1" s="233"/>
-      <c r="E1" s="199" t="str">
+      <c r="B1" s="250"/>
+      <c r="C1" s="250"/>
+      <c r="D1" s="251"/>
+      <c r="E1" s="206" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="153"/>
-      <c r="I1" s="153"/>
-      <c r="J1" s="153"/>
-      <c r="K1" s="153"/>
-      <c r="L1" s="153"/>
-      <c r="M1" s="153"/>
-      <c r="N1" s="154"/>
-      <c r="O1" s="185" t="s">
+      <c r="F1" s="183"/>
+      <c r="G1" s="183"/>
+      <c r="H1" s="183"/>
+      <c r="I1" s="183"/>
+      <c r="J1" s="183"/>
+      <c r="K1" s="183"/>
+      <c r="L1" s="183"/>
+      <c r="M1" s="183"/>
+      <c r="N1" s="184"/>
+      <c r="O1" s="138" t="s">
         <v>30</v>
       </c>
-      <c r="P1" s="186"/>
-      <c r="Q1" s="186"/>
-      <c r="R1" s="187"/>
-      <c r="S1" s="200" t="str">
+      <c r="P1" s="139"/>
+      <c r="Q1" s="139"/>
+      <c r="R1" s="140"/>
+      <c r="S1" s="197" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書（画面）
 WA10102/ログアウト</v>
       </c>
-      <c r="T1" s="201"/>
-      <c r="U1" s="201"/>
-      <c r="V1" s="201"/>
-      <c r="W1" s="201"/>
-      <c r="X1" s="201"/>
-      <c r="Y1" s="201"/>
-      <c r="Z1" s="202"/>
-      <c r="AA1" s="182" t="s">
+      <c r="T1" s="198"/>
+      <c r="U1" s="198"/>
+      <c r="V1" s="198"/>
+      <c r="W1" s="198"/>
+      <c r="X1" s="198"/>
+      <c r="Y1" s="198"/>
+      <c r="Z1" s="199"/>
+      <c r="AA1" s="135" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="184"/>
-      <c r="AC1" s="134" t="str">
+      <c r="AB1" s="137"/>
+      <c r="AC1" s="170" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="135"/>
-      <c r="AE1" s="135"/>
-      <c r="AF1" s="136"/>
-      <c r="AG1" s="228">
+      <c r="AD1" s="171"/>
+      <c r="AE1" s="171"/>
+      <c r="AF1" s="172"/>
+      <c r="AG1" s="246">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43697</v>
       </c>
-      <c r="AH1" s="229"/>
-      <c r="AI1" s="230"/>
+      <c r="AH1" s="247"/>
+      <c r="AI1" s="248"/>
       <c r="AJ1" s="30"/>
     </row>
-    <row r="2" spans="1:53" s="32" customFormat="1">
-      <c r="A2" s="231" t="s">
+    <row r="2" spans="1:53" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="249" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="232"/>
-      <c r="C2" s="232"/>
-      <c r="D2" s="233"/>
-      <c r="E2" s="199" t="str">
+      <c r="B2" s="250"/>
+      <c r="C2" s="250"/>
+      <c r="D2" s="251"/>
+      <c r="E2" s="206" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="153"/>
-      <c r="J2" s="153"/>
-      <c r="K2" s="153"/>
-      <c r="L2" s="153"/>
-      <c r="M2" s="153"/>
-      <c r="N2" s="154"/>
-      <c r="O2" s="188"/>
-      <c r="P2" s="189"/>
-      <c r="Q2" s="189"/>
-      <c r="R2" s="190"/>
-      <c r="S2" s="203"/>
-      <c r="T2" s="204"/>
-      <c r="U2" s="204"/>
-      <c r="V2" s="204"/>
-      <c r="W2" s="204"/>
-      <c r="X2" s="204"/>
-      <c r="Y2" s="204"/>
-      <c r="Z2" s="205"/>
-      <c r="AA2" s="182" t="s">
+      <c r="F2" s="183"/>
+      <c r="G2" s="183"/>
+      <c r="H2" s="183"/>
+      <c r="I2" s="183"/>
+      <c r="J2" s="183"/>
+      <c r="K2" s="183"/>
+      <c r="L2" s="183"/>
+      <c r="M2" s="183"/>
+      <c r="N2" s="184"/>
+      <c r="O2" s="141"/>
+      <c r="P2" s="142"/>
+      <c r="Q2" s="142"/>
+      <c r="R2" s="143"/>
+      <c r="S2" s="200"/>
+      <c r="T2" s="201"/>
+      <c r="U2" s="201"/>
+      <c r="V2" s="201"/>
+      <c r="W2" s="201"/>
+      <c r="X2" s="201"/>
+      <c r="Y2" s="201"/>
+      <c r="Z2" s="202"/>
+      <c r="AA2" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="184"/>
-      <c r="AC2" s="134" t="str">
+      <c r="AB2" s="137"/>
+      <c r="AC2" s="170" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="135"/>
-      <c r="AE2" s="135"/>
-      <c r="AF2" s="136"/>
-      <c r="AG2" s="228" t="str">
+      <c r="AD2" s="171"/>
+      <c r="AE2" s="171"/>
+      <c r="AF2" s="172"/>
+      <c r="AG2" s="246" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="229"/>
-      <c r="AI2" s="230"/>
+      <c r="AH2" s="247"/>
+      <c r="AI2" s="248"/>
       <c r="AJ2" s="30"/>
     </row>
-    <row r="3" spans="1:53" s="32" customFormat="1">
-      <c r="A3" s="231" t="s">
+    <row r="3" spans="1:53" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="249" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="232"/>
-      <c r="C3" s="232"/>
-      <c r="D3" s="233"/>
-      <c r="E3" s="199" t="str">
+      <c r="B3" s="250"/>
+      <c r="C3" s="250"/>
+      <c r="D3" s="251"/>
+      <c r="E3" s="206" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="153"/>
-      <c r="G3" s="153"/>
-      <c r="H3" s="153"/>
-      <c r="I3" s="153"/>
-      <c r="J3" s="153"/>
-      <c r="K3" s="153"/>
-      <c r="L3" s="153"/>
-      <c r="M3" s="153"/>
-      <c r="N3" s="154"/>
-      <c r="O3" s="191"/>
-      <c r="P3" s="192"/>
-      <c r="Q3" s="192"/>
-      <c r="R3" s="193"/>
-      <c r="S3" s="206"/>
-      <c r="T3" s="207"/>
-      <c r="U3" s="207"/>
-      <c r="V3" s="207"/>
-      <c r="W3" s="207"/>
-      <c r="X3" s="207"/>
-      <c r="Y3" s="207"/>
-      <c r="Z3" s="208"/>
-      <c r="AA3" s="182"/>
-      <c r="AB3" s="184"/>
-      <c r="AC3" s="134" t="str">
+      <c r="F3" s="183"/>
+      <c r="G3" s="183"/>
+      <c r="H3" s="183"/>
+      <c r="I3" s="183"/>
+      <c r="J3" s="183"/>
+      <c r="K3" s="183"/>
+      <c r="L3" s="183"/>
+      <c r="M3" s="183"/>
+      <c r="N3" s="184"/>
+      <c r="O3" s="144"/>
+      <c r="P3" s="145"/>
+      <c r="Q3" s="145"/>
+      <c r="R3" s="146"/>
+      <c r="S3" s="203"/>
+      <c r="T3" s="204"/>
+      <c r="U3" s="204"/>
+      <c r="V3" s="204"/>
+      <c r="W3" s="204"/>
+      <c r="X3" s="204"/>
+      <c r="Y3" s="204"/>
+      <c r="Z3" s="205"/>
+      <c r="AA3" s="135"/>
+      <c r="AB3" s="137"/>
+      <c r="AC3" s="170" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="135"/>
-      <c r="AE3" s="135"/>
-      <c r="AF3" s="136"/>
-      <c r="AG3" s="228" t="str">
+      <c r="AD3" s="171"/>
+      <c r="AE3" s="171"/>
+      <c r="AF3" s="172"/>
+      <c r="AG3" s="246" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="229"/>
-      <c r="AI3" s="230"/>
+      <c r="AH3" s="247"/>
+      <c r="AI3" s="248"/>
       <c r="AJ3" s="30"/>
     </row>
-    <row r="4" spans="1:53" ht="12" customHeight="1"/>
-    <row r="5" spans="1:53" ht="12" customHeight="1">
+    <row r="4" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="129" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:53" ht="12" customHeight="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="17" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:53" ht="12" customHeight="1"/>
-    <row r="8" spans="1:53" ht="12" customHeight="1">
+    <row r="7" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D8" s="102" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:53" ht="12" customHeight="1"/>
-    <row r="10" spans="1:53">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:53" x14ac:dyDescent="0.15">
       <c r="C10" s="130" t="s">
         <v>38</v>
       </c>
@@ -6934,7 +6957,7 @@
       <c r="AG10" s="115"/>
       <c r="AH10" s="115"/>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.15">
       <c r="C11" s="35"/>
       <c r="D11" s="115"/>
       <c r="E11" s="115"/>
@@ -6967,17 +6990,17 @@
       <c r="AG11" s="115"/>
       <c r="AH11" s="115"/>
     </row>
-    <row r="12" spans="1:53" ht="11.25" customHeight="1">
+    <row r="12" spans="1:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D12" s="102" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="O12" s="125"/>
     </row>
-    <row r="13" spans="1:53" ht="11.25" customHeight="1">
+    <row r="13" spans="1:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D13" s="102"/>
       <c r="O13" s="125"/>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.15">
       <c r="C14" s="102" t="s">
         <v>71</v>
       </c>
@@ -6999,12 +7022,12 @@
       <c r="AZ14" s="91"/>
       <c r="BA14" s="91"/>
     </row>
-    <row r="15" spans="1:53" ht="11.25" customHeight="1">
+    <row r="15" spans="1:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AY15" s="106"/>
     </row>
-    <row r="16" spans="1:53">
-      <c r="D16" s="251" t="s">
-        <v>89</v>
+    <row r="16" spans="1:53" x14ac:dyDescent="0.15">
+      <c r="D16" s="133" t="s">
+        <v>86</v>
       </c>
       <c r="E16" s="113"/>
       <c r="F16" s="114"/>
@@ -7046,8 +7069,8 @@
       <c r="AR16" s="103"/>
       <c r="AS16" s="103"/>
     </row>
-    <row r="17" spans="1:56">
-      <c r="D17" s="251"/>
+    <row r="17" spans="1:56" x14ac:dyDescent="0.15">
+      <c r="D17" s="133"/>
       <c r="E17" s="113"/>
       <c r="F17" s="124"/>
       <c r="G17" s="124"/>
@@ -7088,7 +7111,7 @@
       <c r="AR17" s="103"/>
       <c r="AS17" s="103"/>
     </row>
-    <row r="18" spans="1:56">
+    <row r="18" spans="1:56" x14ac:dyDescent="0.15">
       <c r="C18" s="17" t="s">
         <v>45</v>
       </c>
@@ -7133,7 +7156,7 @@
       <c r="AR18" s="103"/>
       <c r="AS18" s="103"/>
     </row>
-    <row r="19" spans="1:56" ht="11.25" customHeight="1">
+    <row r="19" spans="1:56" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AI19" s="114"/>
       <c r="AJ19" s="114"/>
       <c r="AK19" s="103"/>
@@ -7150,9 +7173,9 @@
       <c r="AV19" s="103"/>
       <c r="AW19" s="103"/>
     </row>
-    <row r="20" spans="1:56">
+    <row r="20" spans="1:56" x14ac:dyDescent="0.15">
       <c r="D20" s="102" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E20" s="128"/>
       <c r="F20" s="128"/>
@@ -7200,7 +7223,7 @@
       <c r="AZ20" s="103"/>
       <c r="BA20" s="103"/>
     </row>
-    <row r="21" spans="1:56">
+    <row r="21" spans="1:56" x14ac:dyDescent="0.15">
       <c r="D21" s="112"/>
       <c r="E21" s="113"/>
       <c r="F21" s="114"/>
@@ -7244,7 +7267,7 @@
       <c r="AZ21" s="103"/>
       <c r="BA21" s="103"/>
     </row>
-    <row r="22" spans="1:56">
+    <row r="22" spans="1:56" x14ac:dyDescent="0.15">
       <c r="C22" s="17" t="s">
         <v>46</v>
       </c>
@@ -7258,98 +7281,98 @@
       <c r="AZ22" s="103"/>
       <c r="BA22" s="103"/>
     </row>
-    <row r="24" spans="1:56" ht="11.25" customHeight="1">
+    <row r="24" spans="1:56" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C24" s="117"/>
       <c r="D24" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="243" t="s">
+      <c r="E24" s="227" t="s">
         <v>48</v>
       </c>
-      <c r="F24" s="244"/>
-      <c r="G24" s="244"/>
-      <c r="H24" s="244"/>
-      <c r="I24" s="244"/>
-      <c r="J24" s="250"/>
-      <c r="K24" s="243" t="s">
+      <c r="F24" s="228"/>
+      <c r="G24" s="228"/>
+      <c r="H24" s="228"/>
+      <c r="I24" s="228"/>
+      <c r="J24" s="229"/>
+      <c r="K24" s="227" t="s">
         <v>31</v>
       </c>
-      <c r="L24" s="244"/>
-      <c r="M24" s="244"/>
-      <c r="N24" s="244"/>
-      <c r="O24" s="244"/>
-      <c r="P24" s="244"/>
-      <c r="Q24" s="245"/>
-      <c r="R24" s="219" t="s">
+      <c r="L24" s="228"/>
+      <c r="M24" s="228"/>
+      <c r="N24" s="228"/>
+      <c r="O24" s="228"/>
+      <c r="P24" s="228"/>
+      <c r="Q24" s="244"/>
+      <c r="R24" s="220" t="s">
         <v>49</v>
       </c>
-      <c r="S24" s="244"/>
-      <c r="T24" s="244"/>
-      <c r="U24" s="244"/>
-      <c r="V24" s="244"/>
-      <c r="W24" s="244"/>
-      <c r="X24" s="244"/>
-      <c r="Y24" s="245"/>
-      <c r="Z24" s="237" t="s">
+      <c r="S24" s="228"/>
+      <c r="T24" s="228"/>
+      <c r="U24" s="228"/>
+      <c r="V24" s="228"/>
+      <c r="W24" s="228"/>
+      <c r="X24" s="228"/>
+      <c r="Y24" s="244"/>
+      <c r="Z24" s="238" t="s">
         <v>25</v>
       </c>
-      <c r="AA24" s="238"/>
-      <c r="AB24" s="238"/>
-      <c r="AC24" s="238"/>
-      <c r="AD24" s="239"/>
-      <c r="AE24" s="234" t="s">
+      <c r="AA24" s="239"/>
+      <c r="AB24" s="239"/>
+      <c r="AC24" s="239"/>
+      <c r="AD24" s="240"/>
+      <c r="AE24" s="235" t="s">
         <v>76</v>
       </c>
-      <c r="AF24" s="235"/>
-      <c r="AG24" s="235"/>
-      <c r="AH24" s="236"/>
-    </row>
-    <row r="25" spans="1:56" ht="27" customHeight="1">
+      <c r="AF24" s="236"/>
+      <c r="AG24" s="236"/>
+      <c r="AH24" s="237"/>
+    </row>
+    <row r="25" spans="1:56" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D25" s="119">
         <v>1</v>
       </c>
-      <c r="E25" s="249" t="s">
+      <c r="E25" s="230" t="s">
         <v>61</v>
       </c>
-      <c r="F25" s="247"/>
-      <c r="G25" s="247"/>
-      <c r="H25" s="247"/>
-      <c r="I25" s="247"/>
-      <c r="J25" s="248"/>
-      <c r="K25" s="246" t="s">
+      <c r="F25" s="231"/>
+      <c r="G25" s="231"/>
+      <c r="H25" s="231"/>
+      <c r="I25" s="231"/>
+      <c r="J25" s="232"/>
+      <c r="K25" s="245" t="s">
         <v>62</v>
       </c>
-      <c r="L25" s="226"/>
-      <c r="M25" s="226"/>
-      <c r="N25" s="226"/>
-      <c r="O25" s="226"/>
-      <c r="P25" s="226"/>
-      <c r="Q25" s="227"/>
-      <c r="R25" s="155" t="s">
-        <v>86</v>
-      </c>
-      <c r="S25" s="226"/>
-      <c r="T25" s="226"/>
-      <c r="U25" s="226"/>
-      <c r="V25" s="226"/>
-      <c r="W25" s="226"/>
-      <c r="X25" s="226"/>
-      <c r="Y25" s="227"/>
-      <c r="Z25" s="155" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA25" s="226"/>
-      <c r="AB25" s="226"/>
-      <c r="AC25" s="226"/>
-      <c r="AD25" s="227"/>
-      <c r="AE25" s="240" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF25" s="241"/>
-      <c r="AG25" s="241"/>
-      <c r="AH25" s="242"/>
-    </row>
-    <row r="26" spans="1:56" s="106" customFormat="1">
+      <c r="L25" s="233"/>
+      <c r="M25" s="233"/>
+      <c r="N25" s="233"/>
+      <c r="O25" s="233"/>
+      <c r="P25" s="233"/>
+      <c r="Q25" s="234"/>
+      <c r="R25" s="149" t="s">
+        <v>91</v>
+      </c>
+      <c r="S25" s="233"/>
+      <c r="T25" s="233"/>
+      <c r="U25" s="233"/>
+      <c r="V25" s="233"/>
+      <c r="W25" s="233"/>
+      <c r="X25" s="233"/>
+      <c r="Y25" s="234"/>
+      <c r="Z25" s="149" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA25" s="233"/>
+      <c r="AB25" s="233"/>
+      <c r="AC25" s="233"/>
+      <c r="AD25" s="234"/>
+      <c r="AE25" s="241" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF25" s="242"/>
+      <c r="AG25" s="242"/>
+      <c r="AH25" s="243"/>
+    </row>
+    <row r="26" spans="1:56" s="106" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D26" s="111"/>
       <c r="E26" s="121"/>
       <c r="F26" s="121"/>
@@ -7385,7 +7408,7 @@
       <c r="AO26" s="29"/>
       <c r="AP26" s="29"/>
     </row>
-    <row r="27" spans="1:56">
+    <row r="27" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A27" s="103"/>
       <c r="B27" s="103"/>
       <c r="C27" s="103"/>
@@ -7437,7 +7460,7 @@
       <c r="BA27" s="103"/>
       <c r="BB27" s="103"/>
     </row>
-    <row r="28" spans="1:56">
+    <row r="28" spans="1:56" x14ac:dyDescent="0.15">
       <c r="C28" s="103" t="s">
         <v>44</v>
       </c>
@@ -7463,7 +7486,7 @@
       <c r="BC28" s="103"/>
       <c r="BD28" s="103"/>
     </row>
-    <row r="29" spans="1:56" ht="11.25" customHeight="1">
+    <row r="29" spans="1:56" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="103"/>
       <c r="D29" s="123" t="s">
         <v>63</v>
@@ -7485,7 +7508,7 @@
       <c r="BC29" s="103"/>
       <c r="BD29" s="103"/>
     </row>
-    <row r="30" spans="1:56" ht="11.25" customHeight="1">
+    <row r="30" spans="1:56" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C30" s="103"/>
       <c r="D30" s="104"/>
       <c r="E30" s="104"/>
@@ -7505,27 +7528,27 @@
       <c r="BC30" s="103"/>
       <c r="BD30" s="103"/>
     </row>
-    <row r="31" spans="1:56" s="106" customFormat="1" ht="11.25" customHeight="1">
+    <row r="31" spans="1:56" s="106" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C31" s="29"/>
       <c r="D31" s="104"/>
       <c r="E31" s="123" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="AP31" s="29"/>
     </row>
-    <row r="32" spans="1:56">
+    <row r="32" spans="1:56" x14ac:dyDescent="0.15">
       <c r="C32" s="103"/>
       <c r="D32" s="104"/>
       <c r="E32" s="104"/>
       <c r="F32" s="104"/>
     </row>
-    <row r="33" spans="1:58" ht="11.25" customHeight="1">
+    <row r="33" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C33" s="103"/>
       <c r="D33" s="104"/>
       <c r="E33" s="104"/>
       <c r="AP33" s="103"/>
     </row>
-    <row r="34" spans="1:58" s="106" customFormat="1">
+    <row r="34" spans="1:58" s="106" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="29"/>
       <c r="B34" s="105"/>
       <c r="C34" s="29"/>
@@ -7562,7 +7585,7 @@
       <c r="AI34" s="120"/>
       <c r="AJ34" s="113"/>
     </row>
-    <row r="35" spans="1:58" s="106" customFormat="1">
+    <row r="35" spans="1:58" s="106" customFormat="1" x14ac:dyDescent="0.15">
       <c r="AI35" s="108"/>
       <c r="AJ35" s="108"/>
       <c r="AK35" s="108"/>
@@ -7587,9 +7610,9 @@
       <c r="BD35" s="108"/>
       <c r="BE35" s="108"/>
     </row>
-    <row r="36" spans="1:58">
+    <row r="36" spans="1:58" x14ac:dyDescent="0.15">
       <c r="E36" s="102" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G36" s="105"/>
       <c r="AJ36" s="107"/>
@@ -7616,7 +7639,7 @@
       <c r="BE36" s="107"/>
       <c r="BF36" s="107"/>
     </row>
-    <row r="37" spans="1:58">
+    <row r="37" spans="1:58" x14ac:dyDescent="0.15">
       <c r="H37" s="105"/>
       <c r="AJ37" s="107"/>
       <c r="AK37" s="107"/>
@@ -7642,7 +7665,7 @@
       <c r="BE37" s="107"/>
       <c r="BF37" s="107"/>
     </row>
-    <row r="38" spans="1:58">
+    <row r="38" spans="1:58" x14ac:dyDescent="0.15">
       <c r="E38" s="109"/>
       <c r="F38" s="71"/>
       <c r="AJ38" s="107"/>
@@ -7669,7 +7692,7 @@
       <c r="BE38" s="107"/>
       <c r="BF38" s="107"/>
     </row>
-    <row r="39" spans="1:58">
+    <row r="39" spans="1:58" x14ac:dyDescent="0.15">
       <c r="E39" s="109"/>
       <c r="F39" s="110"/>
       <c r="G39" s="71"/>
@@ -7697,7 +7720,7 @@
       <c r="BE39" s="107"/>
       <c r="BF39" s="107"/>
     </row>
-    <row r="40" spans="1:58">
+    <row r="40" spans="1:58" x14ac:dyDescent="0.15">
       <c r="E40" s="109"/>
       <c r="F40" s="110"/>
       <c r="G40" s="71"/>
@@ -7725,7 +7748,7 @@
       <c r="BE40" s="107"/>
       <c r="BF40" s="107"/>
     </row>
-    <row r="41" spans="1:58">
+    <row r="41" spans="1:58" x14ac:dyDescent="0.15">
       <c r="E41" s="109"/>
       <c r="AJ41" s="107"/>
       <c r="AK41" s="107"/>
@@ -7753,6 +7776,20 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="E24:J24"/>
     <mergeCell ref="E25:J25"/>
     <mergeCell ref="R25:Y25"/>
@@ -7765,26 +7802,12 @@
     <mergeCell ref="R24:Y24"/>
     <mergeCell ref="K25:Q25"/>
     <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AA2:AB2"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="99" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C- &amp;P -</oddFooter>
   </headerFooter>
@@ -7813,7 +7836,7 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="21" style="28" customWidth="1"/>
     <col min="2" max="2" width="30.5" style="28" bestFit="1" customWidth="1"/>
@@ -7822,7 +7845,7 @@
     <col min="5" max="16384" width="9.33203125" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="79" t="s">
         <v>12</v>
       </c>
@@ -7836,7 +7859,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="78" t="s">
         <v>77</v>
       </c>
@@ -7850,7 +7873,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="78" t="s">
         <v>15</v>
       </c>
@@ -7864,7 +7887,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="78" t="s">
         <v>16</v>
       </c>
@@ -7878,7 +7901,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="78" t="s">
         <v>17</v>
       </c>
@@ -7889,7 +7912,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="78" t="s">
         <v>18</v>
       </c>
@@ -7897,7 +7920,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="78" t="s">
         <v>19</v>
       </c>
@@ -7905,27 +7928,27 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="78" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="78" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="78" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="78" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="78" t="s">
         <v>24</v>
       </c>
